--- a/Thresholding/LocalT2/HK_R_acc_LT.xlsx
+++ b/Thresholding/LocalT2/HK_R_acc_LT.xlsx
@@ -13,7 +13,10 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1" uniqueCount="1">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2" uniqueCount="2">
+  <si>
+    <t>HK_R_acc_LT</t>
+  </si>
   <si>
     <t>HK_R_acc_LT</t>
   </si>
@@ -69,7 +72,7 @@
   <sheetData>
     <row r="1">
       <c r="A1" s="0" t="s">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="2">

--- a/Thresholding/LocalT2/HK_R_acc_LT.xlsx
+++ b/Thresholding/LocalT2/HK_R_acc_LT.xlsx
@@ -13,7 +13,10 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2" uniqueCount="2">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3" uniqueCount="3">
+  <si>
+    <t>HK_R_acc_LT</t>
+  </si>
   <si>
     <t>HK_R_acc_LT</t>
   </si>
@@ -72,7 +75,7 @@
   <sheetData>
     <row r="1">
       <c r="A1" s="0" t="s">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="2">

--- a/Thresholding/LocalT2/HK_R_acc_LT.xlsx
+++ b/Thresholding/LocalT2/HK_R_acc_LT.xlsx
@@ -13,7 +13,13 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3" uniqueCount="3">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5" uniqueCount="5">
+  <si>
+    <t>HK_R_acc_LT</t>
+  </si>
+  <si>
+    <t>HK_R_acc_LT</t>
+  </si>
   <si>
     <t>HK_R_acc_LT</t>
   </si>
@@ -75,7 +81,7 @@
   <sheetData>
     <row r="1">
       <c r="A1" s="0" t="s">
-        <v>2</v>
+        <v>4</v>
       </c>
     </row>
     <row r="2">

--- a/Thresholding/LocalT2/HK_R_acc_LT.xlsx
+++ b/Thresholding/LocalT2/HK_R_acc_LT.xlsx
@@ -13,7 +13,10 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5" uniqueCount="5">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6" uniqueCount="6">
+  <si>
+    <t>HK_R_acc_LT</t>
+  </si>
   <si>
     <t>HK_R_acc_LT</t>
   </si>
@@ -81,247 +84,247 @@
   <sheetData>
     <row r="1">
       <c r="A1" s="0" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" s="0">
-        <v>84.935755427558703</v>
+        <v>87.39746457867264</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="0">
-        <v>85.999113867966329</v>
+        <v>87.695749440715886</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="0">
-        <v>86.087727071333632</v>
+        <v>88.441461595824009</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="0">
-        <v>89.720868409392992</v>
+        <v>91.349739000745714</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="0">
-        <v>90.474080638015067</v>
+        <v>91.648023862788961</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="0">
-        <v>90.252547629596819</v>
+        <v>91.648023862788961</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="0">
-        <v>80.416482055826322</v>
+        <v>78.374347501864278</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="0">
-        <v>81.745680106335854</v>
+        <v>80.536912751677846</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="0">
-        <v>81.214000886132027</v>
+        <v>80.686055182699477</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="0">
-        <v>80.283562250775361</v>
+        <v>78.523489932885909</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="0">
-        <v>79.751883030571562</v>
+        <v>81.282624906785983</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" s="0">
-        <v>82.498892334957901</v>
+        <v>84.041759880686044</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="0">
-        <v>80.50509525919361</v>
+        <v>79.791200596569723</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" s="0">
-        <v>80.549401860877268</v>
+        <v>79.716629381058908</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="0">
-        <v>82.764731945059808</v>
+        <v>82.102908277404921</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" s="0">
-        <v>80.50509525919361</v>
+        <v>81.058911260253538</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" s="0">
-        <v>81.922906513070444</v>
+        <v>83.743475018642798</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" s="0">
-        <v>87.284005316792204</v>
+        <v>87.322893363161825</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" s="0">
-        <v>90.429774036331409</v>
+        <v>88.73974645786727</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" s="0">
-        <v>90.784226849800618</v>
+        <v>89.112602535421331</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" s="0">
-        <v>90.739920248116974</v>
+        <v>88.814317673378071</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" s="0">
-        <v>84.09392999556934</v>
+        <v>87.173750932140194</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" s="0">
-        <v>87.727071333628714</v>
+        <v>90.007457121551084</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" s="0">
-        <v>87.372618520159506</v>
+        <v>89.932885906040269</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" s="0">
-        <v>83.916703588834736</v>
+        <v>84.41461595824012</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" s="0">
-        <v>83.473637571998225</v>
+        <v>84.190902311707688</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" s="0">
-        <v>83.872396987151092</v>
+        <v>84.489187173750935</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" s="0">
-        <v>82.764731945059808</v>
+        <v>82.102908277404921</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" s="0">
-        <v>82.055826318121404</v>
+        <v>81.282624906785983</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" s="0">
-        <v>81.834293309703142</v>
+        <v>82.177479492915737</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" s="0">
-        <v>90.739920248116974</v>
+        <v>88.292319164802393</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" s="0">
-        <v>93.752769162605233</v>
+        <v>94.034302759134974</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" s="0">
-        <v>92.778023925564909</v>
+        <v>91.648023862788961</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" s="0">
-        <v>88.037217545414265</v>
+        <v>86.577181208053688</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" s="0">
-        <v>92.246344705361096</v>
+        <v>93.586875466070097</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" s="0">
-        <v>82.897651750110768</v>
+        <v>83.22147651006712</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" s="0">
-        <v>89.144882587505535</v>
+        <v>90.23117076808353</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" s="0">
-        <v>85.644661054497121</v>
+        <v>86.204325130499626</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" s="0">
-        <v>84.714222419140455</v>
+        <v>87.099179716629379</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" s="0">
-        <v>81.524147097917592</v>
+        <v>81.208053691275168</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" s="0">
-        <v>82.055826318121404</v>
+        <v>81.357196122296799</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" s="0">
-        <v>81.346920691182987</v>
+        <v>79.716629381058908</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" s="0">
-        <v>81.701373504652196</v>
+        <v>80.462341536167031</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" s="0">
-        <v>84.758529020824099</v>
+        <v>84.787472035794181</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" s="0">
-        <v>86.220646876384578</v>
+        <v>84.041759880686044</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" s="0">
-        <v>80.903854674346476</v>
+        <v>81.133482475764353</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" s="0">
-        <v>82.321665928223311</v>
+        <v>81.133482475764353</v>
       </c>
     </row>
     <row r="49">
       <c r="A49" s="0">
-        <v>81.789986708019484</v>
+        <v>81.357196122296799</v>
       </c>
     </row>
   </sheetData>

--- a/Thresholding/LocalT2/HK_R_acc_LT.xlsx
+++ b/Thresholding/LocalT2/HK_R_acc_LT.xlsx
@@ -13,7 +13,10 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6" uniqueCount="6">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7" uniqueCount="7">
+  <si>
+    <t>HK_R_acc_LT</t>
+  </si>
   <si>
     <t>HK_R_acc_LT</t>
   </si>
@@ -84,247 +87,247 @@
   <sheetData>
     <row r="1">
       <c r="A1" s="0" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" s="0">
-        <v>87.39746457867264</v>
+        <v>84.935755427558703</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="0">
-        <v>87.695749440715886</v>
+        <v>85.999113867966329</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="0">
-        <v>88.441461595824009</v>
+        <v>86.087727071333632</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="0">
-        <v>91.349739000745714</v>
+        <v>89.720868409392992</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="0">
-        <v>91.648023862788961</v>
+        <v>90.474080638015067</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="0">
-        <v>91.648023862788961</v>
+        <v>90.252547629596819</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="0">
-        <v>78.374347501864278</v>
+        <v>80.416482055826322</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="0">
-        <v>80.536912751677846</v>
+        <v>81.745680106335854</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="0">
-        <v>80.686055182699477</v>
+        <v>81.214000886132027</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="0">
-        <v>78.523489932885909</v>
+        <v>80.283562250775361</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="0">
-        <v>81.282624906785983</v>
+        <v>79.751883030571562</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" s="0">
-        <v>84.041759880686044</v>
+        <v>82.498892334957901</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="0">
-        <v>79.791200596569723</v>
+        <v>80.50509525919361</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" s="0">
-        <v>79.716629381058908</v>
+        <v>80.549401860877268</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="0">
-        <v>82.102908277404921</v>
+        <v>82.764731945059808</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" s="0">
-        <v>81.058911260253538</v>
+        <v>80.50509525919361</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" s="0">
-        <v>83.743475018642798</v>
+        <v>81.922906513070444</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" s="0">
-        <v>87.322893363161825</v>
+        <v>87.284005316792204</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" s="0">
-        <v>88.73974645786727</v>
+        <v>90.429774036331409</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" s="0">
-        <v>89.112602535421331</v>
+        <v>90.784226849800618</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" s="0">
-        <v>88.814317673378071</v>
+        <v>90.739920248116974</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" s="0">
-        <v>87.173750932140194</v>
+        <v>84.09392999556934</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" s="0">
-        <v>90.007457121551084</v>
+        <v>87.727071333628714</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" s="0">
-        <v>89.932885906040269</v>
+        <v>87.372618520159506</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" s="0">
-        <v>84.41461595824012</v>
+        <v>83.916703588834736</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" s="0">
-        <v>84.190902311707688</v>
+        <v>83.473637571998225</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" s="0">
-        <v>84.489187173750935</v>
+        <v>83.872396987151092</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" s="0">
-        <v>82.102908277404921</v>
+        <v>82.764731945059808</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" s="0">
-        <v>81.282624906785983</v>
+        <v>82.055826318121404</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" s="0">
-        <v>82.177479492915737</v>
+        <v>81.834293309703142</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" s="0">
-        <v>88.292319164802393</v>
+        <v>90.739920248116974</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" s="0">
-        <v>94.034302759134974</v>
+        <v>93.752769162605233</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" s="0">
-        <v>91.648023862788961</v>
+        <v>92.778023925564909</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" s="0">
-        <v>86.577181208053688</v>
+        <v>88.037217545414265</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" s="0">
-        <v>93.586875466070097</v>
+        <v>92.246344705361096</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" s="0">
-        <v>83.22147651006712</v>
+        <v>82.897651750110768</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" s="0">
-        <v>90.23117076808353</v>
+        <v>89.144882587505535</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" s="0">
-        <v>86.204325130499626</v>
+        <v>85.644661054497121</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" s="0">
-        <v>87.099179716629379</v>
+        <v>84.714222419140455</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" s="0">
-        <v>81.208053691275168</v>
+        <v>81.524147097917592</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" s="0">
-        <v>81.357196122296799</v>
+        <v>82.055826318121404</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" s="0">
-        <v>79.716629381058908</v>
+        <v>81.346920691182987</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" s="0">
-        <v>80.462341536167031</v>
+        <v>81.701373504652196</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" s="0">
-        <v>84.787472035794181</v>
+        <v>84.758529020824099</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" s="0">
-        <v>84.041759880686044</v>
+        <v>86.220646876384578</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" s="0">
-        <v>81.133482475764353</v>
+        <v>80.903854674346476</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" s="0">
-        <v>81.133482475764353</v>
+        <v>82.321665928223311</v>
       </c>
     </row>
     <row r="49">
       <c r="A49" s="0">
-        <v>81.357196122296799</v>
+        <v>81.789986708019484</v>
       </c>
     </row>
   </sheetData>

--- a/Thresholding/LocalT2/HK_R_acc_LT.xlsx
+++ b/Thresholding/LocalT2/HK_R_acc_LT.xlsx
@@ -13,7 +13,13 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7" uniqueCount="7">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9" uniqueCount="9">
+  <si>
+    <t>HK_R_acc_LT</t>
+  </si>
+  <si>
+    <t>HK_R_acc_LT</t>
+  </si>
   <si>
     <t>HK_R_acc_LT</t>
   </si>
@@ -87,7 +93,7 @@
   <sheetData>
     <row r="1">
       <c r="A1" s="0" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
     </row>
     <row r="2">

--- a/Thresholding/LocalT2/HK_R_acc_LT.xlsx
+++ b/Thresholding/LocalT2/HK_R_acc_LT.xlsx
@@ -13,7 +13,10 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9" uniqueCount="9">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10" uniqueCount="10">
+  <si>
+    <t>HK_R_acc_LT</t>
+  </si>
   <si>
     <t>HK_R_acc_LT</t>
   </si>
@@ -93,247 +96,247 @@
   <sheetData>
     <row r="1">
       <c r="A1" s="0" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" s="0">
-        <v>84.935755427558703</v>
+        <v>87.39746457867264</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="0">
-        <v>85.999113867966329</v>
+        <v>87.695749440715886</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="0">
-        <v>86.087727071333632</v>
+        <v>88.441461595824009</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="0">
-        <v>89.720868409392992</v>
+        <v>91.349739000745714</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="0">
-        <v>90.474080638015067</v>
+        <v>91.648023862788961</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="0">
-        <v>90.252547629596819</v>
+        <v>91.648023862788961</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="0">
-        <v>80.416482055826322</v>
+        <v>78.374347501864278</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="0">
-        <v>81.745680106335854</v>
+        <v>80.536912751677846</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="0">
-        <v>81.214000886132027</v>
+        <v>80.686055182699477</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="0">
-        <v>80.283562250775361</v>
+        <v>78.523489932885909</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="0">
-        <v>79.751883030571562</v>
+        <v>81.282624906785983</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" s="0">
-        <v>82.498892334957901</v>
+        <v>84.041759880686044</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="0">
-        <v>80.50509525919361</v>
+        <v>79.791200596569723</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" s="0">
-        <v>80.549401860877268</v>
+        <v>79.716629381058908</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="0">
-        <v>82.764731945059808</v>
+        <v>82.102908277404921</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" s="0">
-        <v>80.50509525919361</v>
+        <v>81.058911260253538</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" s="0">
-        <v>81.922906513070444</v>
+        <v>83.743475018642798</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" s="0">
-        <v>87.284005316792204</v>
+        <v>87.322893363161825</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" s="0">
-        <v>90.429774036331409</v>
+        <v>88.73974645786727</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" s="0">
-        <v>90.784226849800618</v>
+        <v>89.112602535421331</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" s="0">
-        <v>90.739920248116974</v>
+        <v>88.814317673378071</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" s="0">
-        <v>84.09392999556934</v>
+        <v>87.173750932140194</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" s="0">
-        <v>87.727071333628714</v>
+        <v>90.007457121551084</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" s="0">
-        <v>87.372618520159506</v>
+        <v>89.932885906040269</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" s="0">
-        <v>83.916703588834736</v>
+        <v>84.41461595824012</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" s="0">
-        <v>83.473637571998225</v>
+        <v>84.190902311707688</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" s="0">
-        <v>83.872396987151092</v>
+        <v>84.489187173750935</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" s="0">
-        <v>82.764731945059808</v>
+        <v>82.102908277404921</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" s="0">
-        <v>82.055826318121404</v>
+        <v>81.282624906785983</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" s="0">
-        <v>81.834293309703142</v>
+        <v>82.177479492915737</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" s="0">
-        <v>90.739920248116974</v>
+        <v>88.292319164802393</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" s="0">
-        <v>93.752769162605233</v>
+        <v>94.034302759134974</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" s="0">
-        <v>92.778023925564909</v>
+        <v>91.648023862788961</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" s="0">
-        <v>88.037217545414265</v>
+        <v>86.577181208053688</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" s="0">
-        <v>92.246344705361096</v>
+        <v>93.586875466070097</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" s="0">
-        <v>82.897651750110768</v>
+        <v>83.22147651006712</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" s="0">
-        <v>89.144882587505535</v>
+        <v>90.23117076808353</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" s="0">
-        <v>85.644661054497121</v>
+        <v>86.204325130499626</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" s="0">
-        <v>84.714222419140455</v>
+        <v>87.099179716629379</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" s="0">
-        <v>81.524147097917592</v>
+        <v>81.208053691275168</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" s="0">
-        <v>82.055826318121404</v>
+        <v>81.357196122296799</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" s="0">
-        <v>81.346920691182987</v>
+        <v>79.716629381058908</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" s="0">
-        <v>81.701373504652196</v>
+        <v>80.462341536167031</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" s="0">
-        <v>84.758529020824099</v>
+        <v>84.787472035794181</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" s="0">
-        <v>86.220646876384578</v>
+        <v>84.041759880686044</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" s="0">
-        <v>80.903854674346476</v>
+        <v>81.133482475764353</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" s="0">
-        <v>82.321665928223311</v>
+        <v>81.133482475764353</v>
       </c>
     </row>
     <row r="49">
       <c r="A49" s="0">
-        <v>81.789986708019484</v>
+        <v>81.357196122296799</v>
       </c>
     </row>
   </sheetData>

--- a/Thresholding/LocalT2/HK_R_acc_LT.xlsx
+++ b/Thresholding/LocalT2/HK_R_acc_LT.xlsx
@@ -13,7 +13,10 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10" uniqueCount="10">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11" uniqueCount="11">
+  <si>
+    <t>HK_R_acc_LT</t>
+  </si>
   <si>
     <t>HK_R_acc_LT</t>
   </si>
@@ -96,7 +99,7 @@
   <sheetData>
     <row r="1">
       <c r="A1" s="0" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
     </row>
     <row r="2">

--- a/Thresholding/LocalT2/HK_R_acc_LT.xlsx
+++ b/Thresholding/LocalT2/HK_R_acc_LT.xlsx
@@ -13,7 +13,10 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11" uniqueCount="11">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="12">
+  <si>
+    <t>HK_R_acc_LT</t>
+  </si>
   <si>
     <t>HK_R_acc_LT</t>
   </si>
@@ -99,7 +102,7 @@
   <sheetData>
     <row r="1">
       <c r="A1" s="0" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
     </row>
     <row r="2">

--- a/Thresholding/LocalT2/HK_R_acc_LT.xlsx
+++ b/Thresholding/LocalT2/HK_R_acc_LT.xlsx
@@ -13,7 +13,13 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="12">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="14">
+  <si>
+    <t>HK_R_acc_LT</t>
+  </si>
+  <si>
+    <t>HK_R_acc_LT</t>
+  </si>
   <si>
     <t>HK_R_acc_LT</t>
   </si>
@@ -102,248 +108,152 @@
   <sheetData>
     <row r="1">
       <c r="A1" s="0" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
     </row>
     <row r="2">
-      <c r="A2" s="0">
-        <v>87.39746457867264</v>
-      </c>
+      <c r="A2" s="0"/>
     </row>
     <row r="3">
-      <c r="A3" s="0">
-        <v>87.695749440715886</v>
-      </c>
+      <c r="A3" s="0"/>
     </row>
     <row r="4">
-      <c r="A4" s="0">
-        <v>88.441461595824009</v>
-      </c>
+      <c r="A4" s="0"/>
     </row>
     <row r="5">
-      <c r="A5" s="0">
-        <v>91.349739000745714</v>
-      </c>
+      <c r="A5" s="0"/>
     </row>
     <row r="6">
-      <c r="A6" s="0">
-        <v>91.648023862788961</v>
-      </c>
+      <c r="A6" s="0"/>
     </row>
     <row r="7">
-      <c r="A7" s="0">
-        <v>91.648023862788961</v>
-      </c>
+      <c r="A7" s="0"/>
     </row>
     <row r="8">
-      <c r="A8" s="0">
-        <v>78.374347501864278</v>
-      </c>
+      <c r="A8" s="0"/>
     </row>
     <row r="9">
-      <c r="A9" s="0">
-        <v>80.536912751677846</v>
-      </c>
+      <c r="A9" s="0"/>
     </row>
     <row r="10">
-      <c r="A10" s="0">
-        <v>80.686055182699477</v>
-      </c>
+      <c r="A10" s="0"/>
     </row>
     <row r="11">
-      <c r="A11" s="0">
-        <v>78.523489932885909</v>
-      </c>
+      <c r="A11" s="0"/>
     </row>
     <row r="12">
-      <c r="A12" s="0">
-        <v>81.282624906785983</v>
-      </c>
+      <c r="A12" s="0"/>
     </row>
     <row r="13">
-      <c r="A13" s="0">
-        <v>84.041759880686044</v>
-      </c>
+      <c r="A13" s="0"/>
     </row>
     <row r="14">
-      <c r="A14" s="0">
-        <v>79.791200596569723</v>
-      </c>
+      <c r="A14" s="0"/>
     </row>
     <row r="15">
-      <c r="A15" s="0">
-        <v>79.716629381058908</v>
-      </c>
+      <c r="A15" s="0"/>
     </row>
     <row r="16">
-      <c r="A16" s="0">
-        <v>82.102908277404921</v>
-      </c>
+      <c r="A16" s="0"/>
     </row>
     <row r="17">
-      <c r="A17" s="0">
-        <v>81.058911260253538</v>
-      </c>
+      <c r="A17" s="0"/>
     </row>
     <row r="18">
-      <c r="A18" s="0">
-        <v>83.743475018642798</v>
-      </c>
+      <c r="A18" s="0"/>
     </row>
     <row r="19">
-      <c r="A19" s="0">
-        <v>87.322893363161825</v>
-      </c>
+      <c r="A19" s="0"/>
     </row>
     <row r="20">
-      <c r="A20" s="0">
-        <v>88.73974645786727</v>
-      </c>
+      <c r="A20" s="0"/>
     </row>
     <row r="21">
-      <c r="A21" s="0">
-        <v>89.112602535421331</v>
-      </c>
+      <c r="A21" s="0"/>
     </row>
     <row r="22">
-      <c r="A22" s="0">
-        <v>88.814317673378071</v>
-      </c>
+      <c r="A22" s="0"/>
     </row>
     <row r="23">
-      <c r="A23" s="0">
-        <v>87.173750932140194</v>
-      </c>
+      <c r="A23" s="0"/>
     </row>
     <row r="24">
-      <c r="A24" s="0">
-        <v>90.007457121551084</v>
-      </c>
+      <c r="A24" s="0"/>
     </row>
     <row r="25">
-      <c r="A25" s="0">
-        <v>89.932885906040269</v>
-      </c>
+      <c r="A25" s="0"/>
     </row>
     <row r="26">
-      <c r="A26" s="0">
-        <v>84.41461595824012</v>
-      </c>
+      <c r="A26" s="0"/>
     </row>
     <row r="27">
-      <c r="A27" s="0">
-        <v>84.190902311707688</v>
-      </c>
+      <c r="A27" s="0"/>
     </row>
     <row r="28">
-      <c r="A28" s="0">
-        <v>84.489187173750935</v>
-      </c>
+      <c r="A28" s="0"/>
     </row>
     <row r="29">
-      <c r="A29" s="0">
-        <v>82.102908277404921</v>
-      </c>
+      <c r="A29" s="0"/>
     </row>
     <row r="30">
-      <c r="A30" s="0">
-        <v>81.282624906785983</v>
-      </c>
+      <c r="A30" s="0"/>
     </row>
     <row r="31">
-      <c r="A31" s="0">
-        <v>82.177479492915737</v>
-      </c>
+      <c r="A31" s="0"/>
     </row>
     <row r="32">
-      <c r="A32" s="0">
-        <v>88.292319164802393</v>
-      </c>
+      <c r="A32" s="0"/>
     </row>
     <row r="33">
-      <c r="A33" s="0">
-        <v>94.034302759134974</v>
-      </c>
+      <c r="A33" s="0"/>
     </row>
     <row r="34">
-      <c r="A34" s="0">
-        <v>91.648023862788961</v>
-      </c>
+      <c r="A34" s="0"/>
     </row>
     <row r="35">
-      <c r="A35" s="0">
-        <v>86.577181208053688</v>
-      </c>
+      <c r="A35" s="0"/>
     </row>
     <row r="36">
-      <c r="A36" s="0">
-        <v>93.586875466070097</v>
-      </c>
+      <c r="A36" s="0"/>
     </row>
     <row r="37">
-      <c r="A37" s="0">
-        <v>83.22147651006712</v>
-      </c>
+      <c r="A37" s="0"/>
     </row>
     <row r="38">
-      <c r="A38" s="0">
-        <v>90.23117076808353</v>
-      </c>
+      <c r="A38" s="0"/>
     </row>
     <row r="39">
-      <c r="A39" s="0">
-        <v>86.204325130499626</v>
-      </c>
+      <c r="A39" s="0"/>
     </row>
     <row r="40">
-      <c r="A40" s="0">
-        <v>87.099179716629379</v>
-      </c>
+      <c r="A40" s="0"/>
     </row>
     <row r="41">
-      <c r="A41" s="0">
-        <v>81.208053691275168</v>
-      </c>
+      <c r="A41" s="0"/>
     </row>
     <row r="42">
-      <c r="A42" s="0">
-        <v>81.357196122296799</v>
-      </c>
+      <c r="A42" s="0"/>
     </row>
     <row r="43">
-      <c r="A43" s="0">
-        <v>79.716629381058908</v>
-      </c>
+      <c r="A43" s="0"/>
     </row>
     <row r="44">
-      <c r="A44" s="0">
-        <v>80.462341536167031</v>
-      </c>
+      <c r="A44" s="0"/>
     </row>
     <row r="45">
-      <c r="A45" s="0">
-        <v>84.787472035794181</v>
-      </c>
+      <c r="A45" s="0"/>
     </row>
     <row r="46">
-      <c r="A46" s="0">
-        <v>84.041759880686044</v>
-      </c>
+      <c r="A46" s="0"/>
     </row>
     <row r="47">
-      <c r="A47" s="0">
-        <v>81.133482475764353</v>
-      </c>
+      <c r="A47" s="0"/>
     </row>
     <row r="48">
-      <c r="A48" s="0">
-        <v>81.133482475764353</v>
-      </c>
+      <c r="A48" s="0"/>
     </row>
     <row r="49">
-      <c r="A49" s="0">
-        <v>81.357196122296799</v>
-      </c>
+      <c r="A49" s="0"/>
     </row>
   </sheetData>
 </worksheet>

--- a/Thresholding/LocalT2/HK_R_acc_LT.xlsx
+++ b/Thresholding/LocalT2/HK_R_acc_LT.xlsx
@@ -13,7 +13,13 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="14">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="16">
+  <si>
+    <t>HK_R_acc_LT</t>
+  </si>
+  <si>
+    <t>HK_R_acc_LT</t>
+  </si>
   <si>
     <t>HK_R_acc_LT</t>
   </si>
@@ -108,152 +114,248 @@
   <sheetData>
     <row r="1">
       <c r="A1" s="0" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
     </row>
     <row r="2">
-      <c r="A2" s="0"/>
+      <c r="A2" s="0">
+        <v>57.869742198100404</v>
+      </c>
     </row>
     <row r="3">
-      <c r="A3" s="0"/>
+      <c r="A3" s="0">
+        <v>58.208955223880601</v>
+      </c>
     </row>
     <row r="4">
-      <c r="A4" s="0"/>
+      <c r="A4" s="0">
+        <v>58.412483039348707</v>
+      </c>
     </row>
     <row r="5">
-      <c r="A5" s="0"/>
+      <c r="A5" s="0">
+        <v>57.394843962008146</v>
+      </c>
     </row>
     <row r="6">
-      <c r="A6" s="0"/>
+      <c r="A6" s="0">
+        <v>60.651289009497965</v>
+      </c>
     </row>
     <row r="7">
-      <c r="A7" s="0"/>
+      <c r="A7" s="0">
+        <v>60.651289009497965</v>
+      </c>
     </row>
     <row r="8">
-      <c r="A8" s="0"/>
+      <c r="A8" s="0">
+        <v>55.223880597014926</v>
+      </c>
     </row>
     <row r="9">
-      <c r="A9" s="0"/>
+      <c r="A9" s="0">
+        <v>56.580732700135684</v>
+      </c>
     </row>
     <row r="10">
-      <c r="A10" s="0"/>
+      <c r="A10" s="0">
+        <v>57.055630936227949</v>
+      </c>
     </row>
     <row r="11">
-      <c r="A11" s="0"/>
+      <c r="A11" s="0">
+        <v>55.970149253731336</v>
+      </c>
     </row>
     <row r="12">
-      <c r="A12" s="0"/>
+      <c r="A12" s="0">
+        <v>56.919945725915881</v>
+      </c>
     </row>
     <row r="13">
-      <c r="A13" s="0"/>
+      <c r="A13" s="0">
+        <v>56.309362279511532</v>
+      </c>
     </row>
     <row r="14">
-      <c r="A14" s="0"/>
+      <c r="A14" s="0">
+        <v>53.79918588873813</v>
+      </c>
     </row>
     <row r="15">
-      <c r="A15" s="0"/>
+      <c r="A15" s="0">
+        <v>53.188602442333789</v>
+      </c>
     </row>
     <row r="16">
-      <c r="A16" s="0"/>
+      <c r="A16" s="0">
+        <v>54.613297150610585</v>
+      </c>
     </row>
     <row r="17">
-      <c r="A17" s="0"/>
+      <c r="A17" s="0">
+        <v>55.156037991858888</v>
+      </c>
     </row>
     <row r="18">
-      <c r="A18" s="0"/>
+      <c r="A18" s="0">
+        <v>57.191316146540025</v>
+      </c>
     </row>
     <row r="19">
-      <c r="A19" s="0"/>
+      <c r="A19" s="0">
+        <v>57.055630936227949</v>
+      </c>
     </row>
     <row r="20">
-      <c r="A20" s="0"/>
+      <c r="A20" s="0">
+        <v>58.887381275440973</v>
+      </c>
     </row>
     <row r="21">
-      <c r="A21" s="0"/>
+      <c r="A21" s="0">
+        <v>59.905020352781548</v>
+      </c>
     </row>
     <row r="22">
-      <c r="A22" s="0"/>
+      <c r="A22" s="0">
+        <v>60.040705563093624</v>
+      </c>
     </row>
     <row r="23">
-      <c r="A23" s="0"/>
+      <c r="A23" s="0">
+        <v>59.362279511533245</v>
+      </c>
     </row>
     <row r="24">
-      <c r="A24" s="0"/>
+      <c r="A24" s="0">
+        <v>60.447761194029844</v>
+      </c>
     </row>
     <row r="25">
-      <c r="A25" s="0"/>
+      <c r="A25" s="0">
+        <v>60.719131614653996</v>
+      </c>
     </row>
     <row r="26">
-      <c r="A26" s="0"/>
+      <c r="A26" s="0">
+        <v>59.633649932157397</v>
+      </c>
     </row>
     <row r="27">
-      <c r="A27" s="0"/>
+      <c r="A27" s="0">
+        <v>57.191316146540025</v>
+      </c>
     </row>
     <row r="28">
-      <c r="A28" s="0"/>
+      <c r="A28" s="0">
+        <v>58.00542740841248</v>
+      </c>
     </row>
     <row r="29">
-      <c r="A29" s="0"/>
+      <c r="A29" s="0">
+        <v>53.45997286295794</v>
+      </c>
     </row>
     <row r="30">
-      <c r="A30" s="0"/>
+      <c r="A30" s="0">
+        <v>53.324287652645864</v>
+      </c>
     </row>
     <row r="31">
-      <c r="A31" s="0"/>
+      <c r="A31" s="0">
+        <v>51.017639077340569</v>
+      </c>
     </row>
     <row r="32">
-      <c r="A32" s="0"/>
+      <c r="A32" s="0">
+        <v>62.550881953867034</v>
+      </c>
     </row>
     <row r="33">
-      <c r="A33" s="0"/>
+      <c r="A33" s="0">
+        <v>60.854816824966072</v>
+      </c>
     </row>
     <row r="34">
-      <c r="A34" s="0"/>
+      <c r="A34" s="0">
+        <v>60.854816824966072</v>
+      </c>
     </row>
     <row r="35">
-      <c r="A35" s="0"/>
+      <c r="A35" s="0">
+        <v>59.497964721845321</v>
+      </c>
     </row>
     <row r="36">
-      <c r="A36" s="0"/>
+      <c r="A36" s="0">
+        <v>60.58344640434192</v>
+      </c>
     </row>
     <row r="37">
-      <c r="A37" s="0"/>
+      <c r="A37" s="0">
+        <v>52.51017639077341</v>
+      </c>
     </row>
     <row r="38">
-      <c r="A38" s="0"/>
+      <c r="A38" s="0">
+        <v>61.668928086838534</v>
+      </c>
     </row>
     <row r="39">
-      <c r="A39" s="0"/>
+      <c r="A39" s="0">
+        <v>58.412483039348707</v>
+      </c>
     </row>
     <row r="40">
-      <c r="A40" s="0"/>
+      <c r="A40" s="0">
+        <v>58.208955223880601</v>
+      </c>
     </row>
     <row r="41">
-      <c r="A41" s="0"/>
+      <c r="A41" s="0">
+        <v>57.327001356852101</v>
+      </c>
     </row>
     <row r="42">
-      <c r="A42" s="0"/>
+      <c r="A42" s="0">
+        <v>53.663500678426054</v>
+      </c>
     </row>
     <row r="43">
-      <c r="A43" s="0"/>
+      <c r="A43" s="0">
+        <v>54.274084124830388</v>
+      </c>
     </row>
     <row r="44">
-      <c r="A44" s="0"/>
+      <c r="A44" s="0">
+        <v>54.816824966078691</v>
+      </c>
     </row>
     <row r="45">
-      <c r="A45" s="0"/>
+      <c r="A45" s="0">
+        <v>56.784260515603805</v>
+      </c>
     </row>
     <row r="46">
-      <c r="A46" s="0"/>
+      <c r="A46" s="0">
+        <v>56.648575305291729</v>
+      </c>
     </row>
     <row r="47">
-      <c r="A47" s="0"/>
+      <c r="A47" s="0">
+        <v>55.495251017639077</v>
+      </c>
     </row>
     <row r="48">
-      <c r="A48" s="0"/>
+      <c r="A48" s="0">
+        <v>53.120759837177744</v>
+      </c>
     </row>
     <row r="49">
-      <c r="A49" s="0"/>
+      <c r="A49" s="0">
+        <v>56.71641791044776</v>
+      </c>
     </row>
   </sheetData>
 </worksheet>

--- a/Thresholding/LocalT2/HK_R_acc_LT.xlsx
+++ b/Thresholding/LocalT2/HK_R_acc_LT.xlsx
@@ -13,7 +13,13 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="16">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="18">
+  <si>
+    <t>HK_R_acc_LT</t>
+  </si>
+  <si>
+    <t>HK_R_acc_LT</t>
+  </si>
   <si>
     <t>HK_R_acc_LT</t>
   </si>
@@ -114,247 +120,247 @@
   <sheetData>
     <row r="1">
       <c r="A1" s="0" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" s="0">
-        <v>57.869742198100404</v>
+        <v>85.022385022385023</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="0">
-        <v>58.208955223880601</v>
+        <v>85.714285714285708</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="0">
-        <v>58.412483039348707</v>
+        <v>86.080586080586087</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="0">
-        <v>57.394843962008146</v>
+        <v>88.970288970288962</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="0">
-        <v>60.651289009497965</v>
+        <v>89.662189662189661</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="0">
-        <v>60.651289009497965</v>
+        <v>89.417989417989418</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="0">
-        <v>55.223880597014926</v>
+        <v>80.138380138380143</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="0">
-        <v>56.580732700135684</v>
+        <v>81.277981277981283</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="0">
-        <v>57.055630936227949</v>
+        <v>81.03378103378104</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="0">
-        <v>55.970149253731336</v>
+        <v>80.545380545380539</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="0">
-        <v>56.919945725915881</v>
+        <v>79.446479446479444</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" s="0">
-        <v>56.309362279511532</v>
+        <v>81.847781847781846</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="0">
-        <v>53.79918588873813</v>
+        <v>80.219780219780219</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" s="0">
-        <v>53.188602442333789</v>
+        <v>80.504680504680508</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="0">
-        <v>54.613297150610585</v>
+        <v>82.4989824989825</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" s="0">
-        <v>55.156037991858888</v>
+        <v>79.93487993487993</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" s="0">
-        <v>57.191316146540025</v>
+        <v>81.522181522181526</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" s="0">
-        <v>57.055630936227949</v>
+        <v>86.853886853886848</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" s="0">
-        <v>58.887381275440973</v>
+        <v>90.476190476190482</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" s="0">
-        <v>59.905020352781548</v>
+        <v>90.923890923890923</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" s="0">
-        <v>60.040705563093624</v>
+        <v>90.516890516890513</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" s="0">
-        <v>59.362279511533245</v>
+        <v>83.597883597883595</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" s="0">
-        <v>60.447761194029844</v>
+        <v>86.65038665038665</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" s="0">
-        <v>60.719131614653996</v>
+        <v>86.080586080586087</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" s="0">
-        <v>59.633649932157397</v>
+        <v>83.801383801383793</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" s="0">
-        <v>57.191316146540025</v>
+        <v>83.068783068783063</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" s="0">
-        <v>58.00542740841248</v>
+        <v>83.597883597883595</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" s="0">
-        <v>53.45997286295794</v>
+        <v>81.400081400081405</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" s="0">
-        <v>53.324287652645864</v>
+        <v>80.708180708180706</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" s="0">
-        <v>51.017639077340569</v>
+        <v>80.341880341880341</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" s="0">
-        <v>62.550881953867034</v>
+        <v>89.865689865689873</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" s="0">
-        <v>60.854816824966072</v>
+        <v>93.121693121693113</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" s="0">
-        <v>60.854816824966072</v>
+        <v>92.673992673992672</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" s="0">
-        <v>59.497964721845321</v>
+        <v>87.179487179487182</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" s="0">
-        <v>60.58344640434192</v>
+        <v>91.656491656491653</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" s="0">
-        <v>52.51017639077341</v>
+        <v>82.539682539682531</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" s="0">
-        <v>61.668928086838534</v>
+        <v>87.993487993487989</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" s="0">
-        <v>58.412483039348707</v>
+        <v>85.144485144485145</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" s="0">
-        <v>58.208955223880601</v>
+        <v>84.167684167684172</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" s="0">
-        <v>57.327001356852101</v>
+        <v>80.504680504680508</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" s="0">
-        <v>53.663500678426054</v>
+        <v>81.725681725681724</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" s="0">
-        <v>54.274084124830388</v>
+        <v>81.359381359381359</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" s="0">
-        <v>54.816824966078691</v>
+        <v>81.359381359381359</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" s="0">
-        <v>56.784260515603805</v>
+        <v>84.126984126984127</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" s="0">
-        <v>56.648575305291729</v>
+        <v>85.592185592185587</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" s="0">
-        <v>55.495251017639077</v>
+        <v>79.812779812779809</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" s="0">
-        <v>53.120759837177744</v>
+        <v>81.196581196581192</v>
       </c>
     </row>
     <row r="49">
       <c r="A49" s="0">
-        <v>56.71641791044776</v>
+        <v>81.03378103378104</v>
       </c>
     </row>
   </sheetData>

--- a/Thresholding/LocalT2/HK_R_acc_LT.xlsx
+++ b/Thresholding/LocalT2/HK_R_acc_LT.xlsx
@@ -13,7 +13,10 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="18">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="19" uniqueCount="19">
+  <si>
+    <t>HK_R_acc_LT</t>
+  </si>
   <si>
     <t>HK_R_acc_LT</t>
   </si>
@@ -120,7 +123,7 @@
   <sheetData>
     <row r="1">
       <c r="A1" s="0" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
     </row>
     <row r="2">

--- a/Thresholding/LocalT2/HK_R_acc_LT.xlsx
+++ b/Thresholding/LocalT2/HK_R_acc_LT.xlsx
@@ -13,7 +13,10 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="19" uniqueCount="19">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="20">
+  <si>
+    <t>HK_R_acc_LT</t>
+  </si>
   <si>
     <t>HK_R_acc_LT</t>
   </si>
@@ -123,247 +126,247 @@
   <sheetData>
     <row r="1">
       <c r="A1" s="0" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" s="0">
-        <v>85.022385022385023</v>
+        <v>84.530892448512589</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="0">
-        <v>85.714285714285708</v>
+        <v>84.302059496567509</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="0">
-        <v>86.080586080586087</v>
+        <v>85.491990846681915</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="0">
-        <v>88.970288970288962</v>
+        <v>89.244851258581235</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="0">
-        <v>89.662189662189661</v>
+        <v>89.519450800915337</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="0">
-        <v>89.417989417989418</v>
+        <v>89.427917620137293</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="0">
-        <v>80.138380138380143</v>
+        <v>80.320366132723109</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="0">
-        <v>81.277981277981283</v>
+        <v>80.22883295194508</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="0">
-        <v>81.03378103378104</v>
+        <v>79.54233409610984</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="0">
-        <v>80.545380545380539</v>
+        <v>80.366132723112131</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="0">
-        <v>79.446479446479444</v>
+        <v>79.221967963386732</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" s="0">
-        <v>81.847781847781846</v>
+        <v>81.784897025171617</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="0">
-        <v>80.219780219780219</v>
+        <v>80.183066361556072</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" s="0">
-        <v>80.504680504680508</v>
+        <v>79.954233409610993</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="0">
-        <v>82.4989824989825</v>
+        <v>79.359267734553768</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" s="0">
-        <v>79.93487993487993</v>
+        <v>79.54233409610984</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" s="0">
-        <v>81.522181522181526</v>
+        <v>81.601830663615559</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" s="0">
-        <v>86.853886853886848</v>
+        <v>86.956521739130437</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" s="0">
-        <v>90.476190476190482</v>
+        <v>90.480549199084663</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" s="0">
-        <v>90.923890923890923</v>
+        <v>88.375286041189923</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" s="0">
-        <v>90.516890516890513</v>
+        <v>90.755148741418765</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" s="0">
-        <v>83.597883597883595</v>
+        <v>83.569794050343248</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" s="0">
-        <v>86.65038665038665</v>
+        <v>87.231121281464524</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" s="0">
-        <v>86.080586080586087</v>
+        <v>86.727688787185357</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" s="0">
-        <v>83.801383801383793</v>
+        <v>81.51029748283753</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" s="0">
-        <v>83.068783068783063</v>
+        <v>80.961098398169341</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" s="0">
-        <v>83.597883597883595</v>
+        <v>81.464530892448522</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" s="0">
-        <v>81.400081400081405</v>
+        <v>81.601830663615559</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" s="0">
-        <v>80.708180708180706</v>
+        <v>81.4187643020595</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" s="0">
-        <v>80.341880341880341</v>
+        <v>80.82379862700229</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" s="0">
-        <v>89.865689865689873</v>
+        <v>89.656750572082373</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" s="0">
-        <v>93.121693121693113</v>
+        <v>91.670480549199084</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" s="0">
-        <v>92.673992673992672</v>
+        <v>92.448512585812352</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" s="0">
-        <v>87.179487179487182</v>
+        <v>86.544622425629285</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" s="0">
-        <v>91.656491656491653</v>
+        <v>84.118993135011451</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" s="0">
-        <v>82.539682539682531</v>
+        <v>82.379862700228841</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" s="0">
-        <v>87.993487993487989</v>
+        <v>88.604118993135003</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" s="0">
-        <v>85.144485144485145</v>
+        <v>80.961098398169341</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" s="0">
-        <v>84.167684167684172</v>
+        <v>84.210526315789465</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" s="0">
-        <v>80.504680504680508</v>
+        <v>80.411899313501152</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" s="0">
-        <v>81.725681725681724</v>
+        <v>81.098398169336377</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" s="0">
-        <v>81.359381359381359</v>
+        <v>80.869565217391298</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" s="0">
-        <v>81.359381359381359</v>
+        <v>80.45766590389016</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" s="0">
-        <v>84.126984126984127</v>
+        <v>81.464530892448522</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" s="0">
-        <v>85.592185592185587</v>
+        <v>81.235697940503442</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" s="0">
-        <v>79.812779812779809</v>
+        <v>80.411899313501152</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" s="0">
-        <v>81.196581196581192</v>
+        <v>82.242562929061776</v>
       </c>
     </row>
     <row r="49">
       <c r="A49" s="0">
-        <v>81.03378103378104</v>
+        <v>81.144164759725399</v>
       </c>
     </row>
   </sheetData>

--- a/Thresholding/LocalT2/HK_R_acc_LT.xlsx
+++ b/Thresholding/LocalT2/HK_R_acc_LT.xlsx
@@ -13,7 +13,19 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="20">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="24">
+  <si>
+    <t>HK_R_acc_LT</t>
+  </si>
+  <si>
+    <t>HK_R_acc_LT</t>
+  </si>
+  <si>
+    <t>HK_R_acc_LT</t>
+  </si>
+  <si>
+    <t>HK_R_acc_LT</t>
+  </si>
   <si>
     <t>HK_R_acc_LT</t>
   </si>
@@ -126,247 +138,247 @@
   <sheetData>
     <row r="1">
       <c r="A1" s="0" t="s">
-        <v>19</v>
+        <v>23</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" s="0">
-        <v>84.530892448512589</v>
+        <v>57.861060329067641</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="0">
-        <v>84.302059496567509</v>
+        <v>59.643510054844604</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="0">
-        <v>85.491990846681915</v>
+        <v>59.872029250457039</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="0">
-        <v>89.244851258581235</v>
+        <v>58.318098720292497</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="0">
-        <v>89.519450800915337</v>
+        <v>59.460694698354665</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="0">
-        <v>89.427917620137293</v>
+        <v>59.049360146252283</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="0">
-        <v>80.320366132723109</v>
+        <v>56.170018281535647</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="0">
-        <v>80.22883295194508</v>
+        <v>56.307129798903112</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="0">
-        <v>79.54233409610984</v>
+        <v>56.946983546617915</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="0">
-        <v>80.366132723112131</v>
+        <v>56.078610603290677</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="0">
-        <v>79.221967963386732</v>
+        <v>56.855575868372945</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" s="0">
-        <v>81.784897025171617</v>
+        <v>57.769652650822664</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="0">
-        <v>80.183066361556072</v>
+        <v>53.793418647166355</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" s="0">
-        <v>79.954233409610993</v>
+        <v>55.210237659963433</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="0">
-        <v>79.359267734553768</v>
+        <v>55.758683729433265</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" s="0">
-        <v>79.54233409610984</v>
+        <v>56.80987202925045</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" s="0">
-        <v>81.601830663615559</v>
+        <v>58.363802559414992</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" s="0">
-        <v>86.956521739130437</v>
+        <v>58.912248628884825</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" s="0">
-        <v>90.480549199084663</v>
+        <v>59.734917733089574</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" s="0">
-        <v>88.375286041189923</v>
+        <v>59.552102376599635</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" s="0">
-        <v>90.755148741418765</v>
+        <v>60.420475319926872</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" s="0">
-        <v>83.569794050343248</v>
+        <v>59.323583180987207</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" s="0">
-        <v>87.231121281464524</v>
+        <v>61.654478976234003</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" s="0">
-        <v>86.727688787185357</v>
+        <v>61.197440585009147</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" s="0">
-        <v>81.51029748283753</v>
+        <v>57.541133455210236</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" s="0">
-        <v>80.961098398169341</v>
+        <v>55.758683729433265</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" s="0">
-        <v>81.464530892448522</v>
+        <v>55.484460694698356</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" s="0">
-        <v>81.601830663615559</v>
+        <v>56.352833638025587</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" s="0">
-        <v>81.4187643020595</v>
+        <v>56.53564899451554</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" s="0">
-        <v>80.82379862700229</v>
+        <v>53.976234003656309</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" s="0">
-        <v>89.656750572082373</v>
+        <v>63.345521023765997</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" s="0">
-        <v>91.670480549199084</v>
+        <v>62.477148080438759</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" s="0">
-        <v>92.448512585812352</v>
+        <v>62.294332723948806</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" s="0">
-        <v>86.544622425629285</v>
+        <v>60.968921389396712</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" s="0">
-        <v>84.118993135011451</v>
+        <v>60.877513711151735</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" s="0">
-        <v>82.379862700228841</v>
+        <v>48.583180987202923</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" s="0">
-        <v>88.604118993135003</v>
+        <v>64.031078610603288</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" s="0">
-        <v>80.961098398169341</v>
+        <v>59.963436928702009</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" s="0">
-        <v>84.210526315789465</v>
+        <v>60.923217550274224</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" s="0">
-        <v>80.411899313501152</v>
+        <v>57.084095063985373</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" s="0">
-        <v>81.098398169336377</v>
+        <v>51.234003656307124</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" s="0">
-        <v>80.869565217391298</v>
+        <v>53.702010968921385</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" s="0">
-        <v>80.45766590389016</v>
+        <v>52.742230347349171</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" s="0">
-        <v>81.464530892448522</v>
+        <v>55.484460694698356</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" s="0">
-        <v>81.235697940503442</v>
+        <v>57.084095063985373</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" s="0">
-        <v>80.411899313501152</v>
+        <v>55.073126142595974</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" s="0">
-        <v>82.242562929061776</v>
+        <v>51.645338208409505</v>
       </c>
     </row>
     <row r="49">
       <c r="A49" s="0">
-        <v>81.144164759725399</v>
+        <v>55.667276051188296</v>
       </c>
     </row>
   </sheetData>

--- a/Thresholding/LocalT2/HK_R_acc_LT.xlsx
+++ b/Thresholding/LocalT2/HK_R_acc_LT.xlsx
@@ -13,7 +13,16 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="24">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="27" uniqueCount="27">
+  <si>
+    <t>HK_R_acc_LT</t>
+  </si>
+  <si>
+    <t>HK_R_acc_LT</t>
+  </si>
+  <si>
+    <t>HK_R_acc_LT</t>
+  </si>
   <si>
     <t>HK_R_acc_LT</t>
   </si>
@@ -138,247 +147,247 @@
   <sheetData>
     <row r="1">
       <c r="A1" s="0" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" s="0">
-        <v>57.861060329067641</v>
+        <v>85.009140767824505</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="0">
-        <v>59.643510054844604</v>
+        <v>85.877513711151735</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="0">
-        <v>59.872029250457039</v>
+        <v>86.060329067641689</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="0">
-        <v>58.318098720292497</v>
+        <v>89.213893967093242</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="0">
-        <v>59.460694698354665</v>
+        <v>89.762340036563074</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="0">
-        <v>59.049360146252283</v>
+        <v>89.625228519195616</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="0">
-        <v>56.170018281535647</v>
+        <v>80.484460694698356</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="0">
-        <v>56.307129798903112</v>
+        <v>81.901279707495434</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="0">
-        <v>56.946983546617915</v>
+        <v>81.261425959780624</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="0">
-        <v>56.078610603290677</v>
+        <v>80.347349177330898</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="0">
-        <v>56.855575868372945</v>
+        <v>79.296160877513714</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" s="0">
-        <v>57.769652650822664</v>
+        <v>81.946983546617915</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="0">
-        <v>53.793418647166355</v>
+        <v>80.255941499085921</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" s="0">
-        <v>55.210237659963433</v>
+        <v>80.438756855575861</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="0">
-        <v>55.758683729433265</v>
+        <v>82.541133455210229</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" s="0">
-        <v>56.80987202925045</v>
+        <v>80.0274223034735</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" s="0">
-        <v>58.363802559414992</v>
+        <v>81.581352833638022</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" s="0">
-        <v>58.912248628884825</v>
+        <v>87.020109689213896</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" s="0">
-        <v>59.734917733089574</v>
+        <v>90.447897623400365</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" s="0">
-        <v>59.552102376599635</v>
+        <v>90.85923217550274</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" s="0">
-        <v>60.420475319926872</v>
+        <v>90.813528336380259</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" s="0">
-        <v>59.323583180987207</v>
+        <v>83.638025594149909</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" s="0">
-        <v>61.654478976234003</v>
+        <v>87.340036563071294</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" s="0">
-        <v>61.197440585009147</v>
+        <v>86.791590493601461</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" s="0">
-        <v>57.541133455210236</v>
+        <v>83.912248628884825</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" s="0">
-        <v>55.758683729433265</v>
+        <v>83.455210237659955</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" s="0">
-        <v>55.484460694698356</v>
+        <v>83.957952468007306</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" s="0">
-        <v>56.352833638025587</v>
+        <v>82.266910420475327</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" s="0">
-        <v>56.53564899451554</v>
+        <v>81.53564899451554</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" s="0">
-        <v>53.976234003656309</v>
+        <v>81.307129798903105</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" s="0">
-        <v>63.345521023765997</v>
+        <v>90.356489945155388</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" s="0">
-        <v>62.477148080438759</v>
+        <v>93.327239488117002</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" s="0">
-        <v>62.294332723948806</v>
+        <v>92.961608775137123</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" s="0">
-        <v>60.968921389396712</v>
+        <v>87.568555758683729</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" s="0">
-        <v>60.877513711151735</v>
+        <v>91.910420475319938</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" s="0">
-        <v>48.583180987202923</v>
+        <v>82.861060329067641</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" s="0">
-        <v>64.031078610603288</v>
+        <v>88.71115173674589</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" s="0">
-        <v>59.963436928702009</v>
+        <v>85.191956124314444</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" s="0">
-        <v>60.923217550274224</v>
+        <v>84.232175502742237</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" s="0">
-        <v>57.084095063985373</v>
+        <v>81.307129798903105</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" s="0">
-        <v>51.234003656307124</v>
+        <v>81.855575868372938</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" s="0">
-        <v>53.702010968921385</v>
+        <v>81.398537477148082</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" s="0">
-        <v>52.742230347349171</v>
+        <v>81.672760511882998</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" s="0">
-        <v>55.484460694698356</v>
+        <v>84.689213893967093</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" s="0">
-        <v>57.084095063985373</v>
+        <v>86.106032906764156</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" s="0">
-        <v>55.073126142595974</v>
+        <v>80.530164533820837</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" s="0">
-        <v>51.645338208409505</v>
+        <v>82.358318098720289</v>
       </c>
     </row>
     <row r="49">
       <c r="A49" s="0">
-        <v>55.667276051188296</v>
+        <v>81.352833638025587</v>
       </c>
     </row>
   </sheetData>

--- a/Thresholding/LocalT2/HK_R_acc_LT.xlsx
+++ b/Thresholding/LocalT2/HK_R_acc_LT.xlsx
@@ -13,7 +13,10 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="27" uniqueCount="27">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="28" uniqueCount="28">
+  <si>
+    <t>HK_R_acc_LT</t>
+  </si>
   <si>
     <t>HK_R_acc_LT</t>
   </si>
@@ -147,7 +150,7 @@
   <sheetData>
     <row r="1">
       <c r="A1" s="0" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
     </row>
     <row r="2">

--- a/Thresholding/LocalT2/HK_R_acc_LT.xlsx
+++ b/Thresholding/LocalT2/HK_R_acc_LT.xlsx
@@ -13,7 +13,10 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="28" uniqueCount="28">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="29" uniqueCount="29">
+  <si>
+    <t>HK_R_acc_LT</t>
+  </si>
   <si>
     <t>HK_R_acc_LT</t>
   </si>
@@ -150,7 +153,7 @@
   <sheetData>
     <row r="1">
       <c r="A1" s="0" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
     </row>
     <row r="2">

--- a/Thresholding/LocalT2/HK_R_acc_LT.xlsx
+++ b/Thresholding/LocalT2/HK_R_acc_LT.xlsx
@@ -13,7 +13,10 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="29" uniqueCount="29">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="30" uniqueCount="30">
+  <si>
+    <t>HK_R_acc_LT</t>
+  </si>
   <si>
     <t>HK_R_acc_LT</t>
   </si>
@@ -153,7 +156,7 @@
   <sheetData>
     <row r="1">
       <c r="A1" s="0" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
     </row>
     <row r="2">

--- a/Thresholding/LocalT2/HK_R_acc_LT.xlsx
+++ b/Thresholding/LocalT2/HK_R_acc_LT.xlsx
@@ -13,7 +13,10 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="30" uniqueCount="30">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="31" uniqueCount="31">
+  <si>
+    <t>HK_R_acc_LT</t>
+  </si>
   <si>
     <t>HK_R_acc_LT</t>
   </si>
@@ -156,7 +159,7 @@
   <sheetData>
     <row r="1">
       <c r="A1" s="0" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
     </row>
     <row r="2">

--- a/Thresholding/LocalT2/HK_R_acc_LT.xlsx
+++ b/Thresholding/LocalT2/HK_R_acc_LT.xlsx
@@ -13,7 +13,10 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="31" uniqueCount="31">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="32" uniqueCount="32">
+  <si>
+    <t>HK_R_acc_LT</t>
+  </si>
   <si>
     <t>HK_R_acc_LT</t>
   </si>
@@ -159,7 +162,7 @@
   <sheetData>
     <row r="1">
       <c r="A1" s="0" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
     </row>
     <row r="2">

--- a/Thresholding/LocalT2/HK_R_acc_LT.xlsx
+++ b/Thresholding/LocalT2/HK_R_acc_LT.xlsx
@@ -13,7 +13,10 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="32" uniqueCount="32">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="33" uniqueCount="33">
+  <si>
+    <t>HK_R_acc_LT</t>
+  </si>
   <si>
     <t>HK_R_acc_LT</t>
   </si>
@@ -162,247 +165,247 @@
   <sheetData>
     <row r="1">
       <c r="A1" s="0" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" s="0">
-        <v>85.009140767824505</v>
+        <v>85.080091533180777</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="0">
-        <v>85.877513711151735</v>
+        <v>85.949656750572075</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="0">
-        <v>86.060329067641689</v>
+        <v>86.132723112128147</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="0">
-        <v>89.213893967093242</v>
+        <v>89.290617848970257</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="0">
-        <v>89.762340036563074</v>
+        <v>89.839816933638446</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="0">
-        <v>89.625228519195616</v>
+        <v>89.702517162471395</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="0">
-        <v>80.484460694698356</v>
+        <v>80.549199084668189</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="0">
-        <v>81.901279707495434</v>
+        <v>81.967963386727689</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="0">
-        <v>81.261425959780624</v>
+        <v>81.327231121281457</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="0">
-        <v>80.347349177330898</v>
+        <v>80.411899313501152</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="0">
-        <v>79.296160877513714</v>
+        <v>79.359267734553768</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" s="0">
-        <v>81.946983546617915</v>
+        <v>82.013729977116697</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="0">
-        <v>80.255941499085921</v>
+        <v>80.320366132723109</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" s="0">
-        <v>80.438756855575861</v>
+        <v>80.503432494279181</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="0">
-        <v>82.541133455210229</v>
+        <v>82.608695652173907</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" s="0">
-        <v>80.0274223034735</v>
+        <v>80.091533180778029</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" s="0">
-        <v>81.581352833638022</v>
+        <v>81.64759725400458</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" s="0">
-        <v>87.020109689213896</v>
+        <v>87.093821510297488</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" s="0">
-        <v>90.447897623400365</v>
+        <v>90.526315789473685</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" s="0">
-        <v>90.85923217550274</v>
+        <v>90.938215102974823</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" s="0">
-        <v>90.813528336380259</v>
+        <v>90.892448512585815</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" s="0">
-        <v>83.638025594149909</v>
+        <v>83.707093821510298</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" s="0">
-        <v>87.340036563071294</v>
+        <v>87.414187643020597</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" s="0">
-        <v>86.791590493601461</v>
+        <v>86.864988558352408</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" s="0">
-        <v>83.912248628884825</v>
+        <v>83.981693363844386</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" s="0">
-        <v>83.455210237659955</v>
+        <v>83.524027459954226</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" s="0">
-        <v>83.957952468007306</v>
+        <v>84.027459954233407</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" s="0">
-        <v>82.266910420475327</v>
+        <v>82.33409610983982</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" s="0">
-        <v>81.53564899451554</v>
+        <v>81.601830663615559</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" s="0">
-        <v>81.307129798903105</v>
+        <v>81.372997711670479</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" s="0">
-        <v>90.356489945155388</v>
+        <v>90.434782608695656</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" s="0">
-        <v>93.327239488117002</v>
+        <v>93.409610983981693</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" s="0">
-        <v>92.961608775137123</v>
+        <v>93.043478260869563</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" s="0">
-        <v>87.568555758683729</v>
+        <v>87.643020594965677</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" s="0">
-        <v>91.910420475319938</v>
+        <v>91.990846681922207</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" s="0">
-        <v>82.861060329067641</v>
+        <v>82.92906178489703</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" s="0">
-        <v>88.71115173674589</v>
+        <v>88.787185354691076</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" s="0">
-        <v>85.191956124314444</v>
+        <v>85.263157894736835</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" s="0">
-        <v>84.232175502742237</v>
+        <v>84.302059496567509</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" s="0">
-        <v>81.307129798903105</v>
+        <v>81.372997711670479</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" s="0">
-        <v>81.855575868372938</v>
+        <v>81.922196796338682</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" s="0">
-        <v>81.398537477148082</v>
+        <v>81.464530892448522</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" s="0">
-        <v>81.672760511882998</v>
+        <v>81.739130434782609</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" s="0">
-        <v>84.689213893967093</v>
+        <v>84.759725400457668</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" s="0">
-        <v>86.106032906764156</v>
+        <v>86.178489702517155</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" s="0">
-        <v>80.530164533820837</v>
+        <v>80.59496567505721</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" s="0">
-        <v>82.358318098720289</v>
+        <v>82.425629290617849</v>
       </c>
     </row>
     <row r="49">
       <c r="A49" s="0">
-        <v>81.352833638025587</v>
+        <v>81.4187643020595</v>
       </c>
     </row>
   </sheetData>

--- a/Thresholding/LocalT2/HK_R_acc_LT.xlsx
+++ b/Thresholding/LocalT2/HK_R_acc_LT.xlsx
@@ -13,7 +13,13 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="33" uniqueCount="33">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="35" uniqueCount="35">
+  <si>
+    <t>HK_R_acc_LT</t>
+  </si>
+  <si>
+    <t>HK_R_acc_LT</t>
+  </si>
   <si>
     <t>HK_R_acc_LT</t>
   </si>
@@ -165,247 +171,247 @@
   <sheetData>
     <row r="1">
       <c r="A1" s="0" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" s="0">
-        <v>85.080091533180777</v>
+        <v>88.036809815950917</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="0">
-        <v>85.949656750572075</v>
+        <v>88.343558282208591</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="0">
-        <v>86.132723112128147</v>
+        <v>89.033742331288352</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="0">
-        <v>89.290617848970257</v>
+        <v>91.027607361963192</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="0">
-        <v>89.839816933638446</v>
+        <v>91.334355828220865</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="0">
-        <v>89.702517162471395</v>
+        <v>91.334355828220865</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="0">
-        <v>80.549199084668189</v>
+        <v>78.757668711656436</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="0">
-        <v>81.967963386727689</v>
+        <v>80.981595092024534</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="0">
-        <v>81.327231121281457</v>
+        <v>81.058282208588963</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="0">
-        <v>80.411899313501152</v>
+        <v>78.911042944785279</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="0">
-        <v>79.359267734553768</v>
+        <v>81.211656441717793</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" s="0">
-        <v>82.013729977116697</v>
+        <v>83.819018404907979</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="0">
-        <v>80.320366132723109</v>
+        <v>79.907975460122699</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" s="0">
-        <v>80.503432494279181</v>
+        <v>79.831288343558285</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="0">
-        <v>82.608695652173907</v>
+        <v>82.208588957055213</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" s="0">
-        <v>80.091533180778029</v>
+        <v>80.828220858895705</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" s="0">
-        <v>81.64759725400458</v>
+        <v>83.588957055214721</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" s="0">
-        <v>87.093821510297488</v>
+        <v>87.269938650306742</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" s="0">
-        <v>90.526315789473685</v>
+        <v>89.340490797546011</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" s="0">
-        <v>90.938215102974823</v>
+        <v>89.723926380368098</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" s="0">
-        <v>90.892448512585815</v>
+        <v>89.417177914110425</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" s="0">
-        <v>83.707093821510298</v>
+        <v>86.963190184049083</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" s="0">
-        <v>87.414187643020597</v>
+        <v>89.953987730061343</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" s="0">
-        <v>86.864988558352408</v>
+        <v>89.800613496932513</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" s="0">
-        <v>83.981693363844386</v>
+        <v>84.662576687116569</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" s="0">
-        <v>83.524027459954226</v>
+        <v>84.432515337423311</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" s="0">
-        <v>84.027459954233407</v>
+        <v>84.815950920245399</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" s="0">
-        <v>82.33409610983982</v>
+        <v>81.901840490797554</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" s="0">
-        <v>81.601830663615559</v>
+        <v>81.058282208588963</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" s="0">
-        <v>81.372997711670479</v>
+        <v>81.978527607361968</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" s="0">
-        <v>90.434782608695656</v>
+        <v>88.113496932515332</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" s="0">
-        <v>93.409610983981693</v>
+        <v>93.865030674846622</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" s="0">
-        <v>93.043478260869563</v>
+        <v>92.407975460122699</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" s="0">
-        <v>87.643020594965677</v>
+        <v>86.349693251533751</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" s="0">
-        <v>91.990846681922207</v>
+        <v>93.558282208588963</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" s="0">
-        <v>82.92906178489703</v>
+        <v>83.742331288343564</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" s="0">
-        <v>88.787185354691076</v>
+        <v>90.030674846625772</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" s="0">
-        <v>85.263157894736835</v>
+        <v>86.042944785276077</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" s="0">
-        <v>84.302059496567509</v>
+        <v>86.886503067484668</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" s="0">
-        <v>81.372997711670479</v>
+        <v>81.441717791411037</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" s="0">
-        <v>81.922196796338682</v>
+        <v>81.595092024539866</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" s="0">
-        <v>81.464530892448522</v>
+        <v>80.138036809815944</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" s="0">
-        <v>81.739130434782609</v>
+        <v>80.904907975460134</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" s="0">
-        <v>84.759725400457668</v>
+        <v>85.122699386503058</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" s="0">
-        <v>86.178489702517155</v>
+        <v>84.355828220858896</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" s="0">
-        <v>80.59496567505721</v>
+        <v>80.981595092024534</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" s="0">
-        <v>82.425629290617849</v>
+        <v>81.748466257668724</v>
       </c>
     </row>
     <row r="49">
       <c r="A49" s="0">
-        <v>81.4187643020595</v>
+        <v>81.058282208588963</v>
       </c>
     </row>
   </sheetData>

--- a/Thresholding/LocalT2/HK_R_acc_LT.xlsx
+++ b/Thresholding/LocalT2/HK_R_acc_LT.xlsx
@@ -13,7 +13,10 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="35" uniqueCount="35">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36" uniqueCount="36">
+  <si>
+    <t>HK_R_acc_LT</t>
+  </si>
   <si>
     <t>HK_R_acc_LT</t>
   </si>
@@ -171,247 +174,247 @@
   <sheetData>
     <row r="1">
       <c r="A1" s="0" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" s="0">
-        <v>88.036809815950917</v>
+        <v>98.202959830866803</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="0">
-        <v>88.343558282208591</v>
+        <v>98.097251585623681</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="0">
-        <v>89.033742331288352</v>
+        <v>99.365750528541227</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="0">
-        <v>91.027607361963192</v>
+        <v>98.625792811839318</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="0">
-        <v>91.334355828220865</v>
+        <v>99.154334038054969</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="0">
-        <v>91.334355828220865</v>
+        <v>99.048625792811833</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="0">
-        <v>78.757668711656436</v>
+        <v>94.82029598308668</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="0">
-        <v>80.981595092024534</v>
+        <v>94.503171247357301</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="0">
-        <v>81.058282208588963</v>
+        <v>94.397463002114165</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="0">
-        <v>78.911042944785279</v>
+        <v>94.714587737843544</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="0">
-        <v>81.211656441717793</v>
+        <v>96.828752642706135</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" s="0">
-        <v>83.819018404907979</v>
+        <v>98.414376321353075</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="0">
-        <v>79.907975460122699</v>
+        <v>95.454545454545453</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" s="0">
-        <v>79.831288343558285</v>
+        <v>95.348837209302332</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="0">
-        <v>82.208588957055213</v>
+        <v>93.763213530655392</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" s="0">
-        <v>80.828220858895705</v>
+        <v>97.463002114164908</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" s="0">
-        <v>83.588957055214721</v>
+        <v>97.463002114164908</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" s="0">
-        <v>87.269938650306742</v>
+        <v>98.837209302325576</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" s="0">
-        <v>89.340490797546011</v>
+        <v>95.877378435517969</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" s="0">
-        <v>89.723926380368098</v>
+        <v>95.771670190274833</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" s="0">
-        <v>89.417177914110425</v>
+        <v>95.877378435517969</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" s="0">
-        <v>86.963190184049083</v>
+        <v>98.202959830866803</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" s="0">
-        <v>89.953987730061343</v>
+        <v>97.991543340380545</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" s="0">
-        <v>89.800613496932513</v>
+        <v>97.991543340380545</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" s="0">
-        <v>84.662576687116569</v>
+        <v>94.82029598308668</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" s="0">
-        <v>84.432515337423311</v>
+        <v>94.291754756871043</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" s="0">
-        <v>84.815950920245399</v>
+        <v>94.82029598308668</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" s="0">
-        <v>81.901840490797554</v>
+        <v>95.983086680761105</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" s="0">
-        <v>81.058282208588963</v>
+        <v>95.031712473572938</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" s="0">
-        <v>81.978527607361968</v>
+        <v>95.983086680761105</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" s="0">
-        <v>88.113496932515332</v>
+        <v>95.560253699788589</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" s="0">
-        <v>93.865030674846622</v>
+        <v>98.837209302325576</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" s="0">
-        <v>92.407975460122699</v>
+        <v>95.665961945031711</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" s="0">
-        <v>86.349693251533751</v>
+        <v>97.56871035940803</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" s="0">
-        <v>93.558282208588963</v>
+        <v>98.942917547568712</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" s="0">
-        <v>83.742331288343564</v>
+        <v>97.56871035940803</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" s="0">
-        <v>90.030674846625772</v>
+        <v>98.520084566596196</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" s="0">
-        <v>86.042944785276077</v>
+        <v>97.780126849894287</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" s="0">
-        <v>86.886503067484668</v>
+        <v>98.202959830866803</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" s="0">
-        <v>81.441717791411037</v>
+        <v>94.503171247357301</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" s="0">
-        <v>81.595092024539866</v>
+        <v>94.608879492600423</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" s="0">
-        <v>80.138036809815944</v>
+        <v>93.868921775898514</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" s="0">
-        <v>80.904907975460134</v>
+        <v>94.82029598308668</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" s="0">
-        <v>85.122699386503058</v>
+        <v>94.714587737843544</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" s="0">
-        <v>84.355828220858896</v>
+        <v>93.763213530655392</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" s="0">
-        <v>80.981595092024534</v>
+        <v>96.511627906976756</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" s="0">
-        <v>81.748466257668724</v>
+        <v>96.40591966173362</v>
       </c>
     </row>
     <row r="49">
       <c r="A49" s="0">
-        <v>81.058282208588963</v>
+        <v>95.983086680761105</v>
       </c>
     </row>
   </sheetData>

--- a/Thresholding/LocalT2/HK_R_acc_LT.xlsx
+++ b/Thresholding/LocalT2/HK_R_acc_LT.xlsx
@@ -13,7 +13,13 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36" uniqueCount="36">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="38" uniqueCount="38">
+  <si>
+    <t>HK_R_acc_LT</t>
+  </si>
+  <si>
+    <t>HK_R_acc_LT</t>
+  </si>
   <si>
     <t>HK_R_acc_LT</t>
   </si>
@@ -174,247 +180,247 @@
   <sheetData>
     <row r="1">
       <c r="A1" s="0" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" s="0">
-        <v>98.202959830866803</v>
+        <v>84.530892448512589</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="0">
-        <v>98.097251585623681</v>
+        <v>84.302059496567509</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="0">
-        <v>99.365750528541227</v>
+        <v>85.491990846681915</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="0">
-        <v>98.625792811839318</v>
+        <v>89.244851258581235</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="0">
-        <v>99.154334038054969</v>
+        <v>89.519450800915337</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="0">
-        <v>99.048625792811833</v>
+        <v>89.427917620137293</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="0">
-        <v>94.82029598308668</v>
+        <v>80.320366132723109</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="0">
-        <v>94.503171247357301</v>
+        <v>80.22883295194508</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="0">
-        <v>94.397463002114165</v>
+        <v>79.54233409610984</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="0">
-        <v>94.714587737843544</v>
+        <v>80.366132723112131</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="0">
-        <v>96.828752642706135</v>
+        <v>79.221967963386732</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" s="0">
-        <v>98.414376321353075</v>
+        <v>81.784897025171617</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="0">
-        <v>95.454545454545453</v>
+        <v>80.183066361556072</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" s="0">
-        <v>95.348837209302332</v>
+        <v>79.954233409610993</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="0">
-        <v>93.763213530655392</v>
+        <v>79.359267734553768</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" s="0">
-        <v>97.463002114164908</v>
+        <v>79.54233409610984</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" s="0">
-        <v>97.463002114164908</v>
+        <v>81.601830663615559</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" s="0">
-        <v>98.837209302325576</v>
+        <v>86.956521739130437</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" s="0">
-        <v>95.877378435517969</v>
+        <v>90.480549199084663</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" s="0">
-        <v>95.771670190274833</v>
+        <v>88.375286041189923</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" s="0">
-        <v>95.877378435517969</v>
+        <v>90.755148741418765</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" s="0">
-        <v>98.202959830866803</v>
+        <v>83.569794050343248</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" s="0">
-        <v>97.991543340380545</v>
+        <v>87.231121281464524</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" s="0">
-        <v>97.991543340380545</v>
+        <v>86.727688787185357</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" s="0">
-        <v>94.82029598308668</v>
+        <v>81.51029748283753</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" s="0">
-        <v>94.291754756871043</v>
+        <v>80.961098398169341</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" s="0">
-        <v>94.82029598308668</v>
+        <v>81.464530892448522</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" s="0">
-        <v>95.983086680761105</v>
+        <v>81.601830663615559</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" s="0">
-        <v>95.031712473572938</v>
+        <v>81.4187643020595</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" s="0">
-        <v>95.983086680761105</v>
+        <v>80.82379862700229</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" s="0">
-        <v>95.560253699788589</v>
+        <v>89.656750572082373</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" s="0">
-        <v>98.837209302325576</v>
+        <v>91.670480549199084</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" s="0">
-        <v>95.665961945031711</v>
+        <v>92.448512585812352</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" s="0">
-        <v>97.56871035940803</v>
+        <v>86.544622425629285</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" s="0">
-        <v>98.942917547568712</v>
+        <v>84.118993135011451</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" s="0">
-        <v>97.56871035940803</v>
+        <v>82.379862700228841</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" s="0">
-        <v>98.520084566596196</v>
+        <v>88.604118993135003</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" s="0">
-        <v>97.780126849894287</v>
+        <v>80.961098398169341</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" s="0">
-        <v>98.202959830866803</v>
+        <v>84.210526315789465</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" s="0">
-        <v>94.503171247357301</v>
+        <v>80.411899313501152</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" s="0">
-        <v>94.608879492600423</v>
+        <v>81.098398169336377</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" s="0">
-        <v>93.868921775898514</v>
+        <v>80.869565217391298</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" s="0">
-        <v>94.82029598308668</v>
+        <v>80.45766590389016</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" s="0">
-        <v>94.714587737843544</v>
+        <v>81.464530892448522</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" s="0">
-        <v>93.763213530655392</v>
+        <v>81.235697940503442</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" s="0">
-        <v>96.511627906976756</v>
+        <v>80.411899313501152</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" s="0">
-        <v>96.40591966173362</v>
+        <v>82.242562929061776</v>
       </c>
     </row>
     <row r="49">
       <c r="A49" s="0">
-        <v>95.983086680761105</v>
+        <v>81.144164759725399</v>
       </c>
     </row>
   </sheetData>

--- a/Thresholding/LocalT2/HK_R_acc_LT.xlsx
+++ b/Thresholding/LocalT2/HK_R_acc_LT.xlsx
@@ -13,7 +13,16 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="38" uniqueCount="38">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="41" uniqueCount="41">
+  <si>
+    <t>HK_R_acc_LT</t>
+  </si>
+  <si>
+    <t>HK_R_acc_LT</t>
+  </si>
+  <si>
+    <t>HK_R_acc_LT</t>
+  </si>
   <si>
     <t>HK_R_acc_LT</t>
   </si>
@@ -180,7 +189,7 @@
   <sheetData>
     <row r="1">
       <c r="A1" s="0" t="s">
-        <v>37</v>
+        <v>40</v>
       </c>
     </row>
     <row r="2">

--- a/Thresholding/LocalT2/HK_R_acc_LT.xlsx
+++ b/Thresholding/LocalT2/HK_R_acc_LT.xlsx
@@ -13,7 +13,16 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="41" uniqueCount="41">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="44" uniqueCount="44">
+  <si>
+    <t>HK_R_acc_LT</t>
+  </si>
+  <si>
+    <t>HK_R_acc_LT</t>
+  </si>
+  <si>
+    <t>HK_R_acc_LT</t>
+  </si>
   <si>
     <t>HK_R_acc_LT</t>
   </si>
@@ -189,47 +198,47 @@
   <sheetData>
     <row r="1">
       <c r="A1" s="0" t="s">
-        <v>40</v>
+        <v>43</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" s="0">
-        <v>84.530892448512589</v>
+        <v>80.915331807780319</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="0">
-        <v>84.302059496567509</v>
+        <v>83.981693363844386</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="0">
-        <v>85.491990846681915</v>
+        <v>84.302059496567509</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="0">
-        <v>89.244851258581235</v>
+        <v>88.054919908466829</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="0">
-        <v>89.519450800915337</v>
+        <v>88.054919908466829</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="0">
-        <v>89.427917620137293</v>
+        <v>87.643020594965677</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="0">
-        <v>80.320366132723109</v>
+        <v>78.764302059496572</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="0">
-        <v>80.22883295194508</v>
+        <v>80.549199084668189</v>
       </c>
     </row>
     <row r="10">
@@ -239,197 +248,197 @@
     </row>
     <row r="11">
       <c r="A11" s="0">
-        <v>80.366132723112131</v>
+        <v>78.535469107551492</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="0">
-        <v>79.221967963386732</v>
+        <v>74.233409610983983</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" s="0">
-        <v>81.784897025171617</v>
+        <v>79.77116704805492</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="0">
-        <v>80.183066361556072</v>
+        <v>77.848970251716239</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" s="0">
-        <v>79.954233409610993</v>
+        <v>78.169336384439362</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="0">
-        <v>79.359267734553768</v>
+        <v>80.45766590389016</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" s="0">
-        <v>79.54233409610984</v>
+        <v>77.66590389016018</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" s="0">
-        <v>81.601830663615559</v>
+        <v>79.816933638443928</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" s="0">
-        <v>86.956521739130437</v>
+        <v>85.080091533180777</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" s="0">
-        <v>90.480549199084663</v>
+        <v>88.009153318077807</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" s="0">
-        <v>88.375286041189923</v>
+        <v>88.009153318077807</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" s="0">
-        <v>90.755148741418765</v>
+        <v>87.826086956521749</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" s="0">
-        <v>83.569794050343248</v>
+        <v>79.496567505720833</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" s="0">
-        <v>87.231121281464524</v>
+        <v>82.10526315789474</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" s="0">
-        <v>86.727688787185357</v>
+        <v>81.51029748283753</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" s="0">
-        <v>81.51029748283753</v>
+        <v>81.64759725400458</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" s="0">
-        <v>80.961098398169341</v>
+        <v>80.82379862700229</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" s="0">
-        <v>81.464530892448522</v>
+        <v>81.693363844393602</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" s="0">
-        <v>81.601830663615559</v>
+        <v>81.28146453089245</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" s="0">
-        <v>81.4187643020595</v>
+        <v>80.274599542334087</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" s="0">
-        <v>80.82379862700229</v>
+        <v>80.183066361556072</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" s="0">
-        <v>89.656750572082373</v>
+        <v>89.473684210526315</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" s="0">
-        <v>91.670480549199084</v>
+        <v>92.494279176201374</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" s="0">
-        <v>92.448512585812352</v>
+        <v>92.082379862700222</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" s="0">
-        <v>86.544622425629285</v>
+        <v>83.203661327231131</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" s="0">
-        <v>84.118993135011451</v>
+        <v>88.054919908466829</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" s="0">
-        <v>82.379862700228841</v>
+        <v>68.054919908466815</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" s="0">
-        <v>88.604118993135003</v>
+        <v>84.668192219679639</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" s="0">
-        <v>80.961098398169341</v>
+        <v>80.869565217391298</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" s="0">
-        <v>84.210526315789465</v>
+        <v>79.588100686498848</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" s="0">
-        <v>80.411899313501152</v>
+        <v>79.450800915331811</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" s="0">
-        <v>81.098398169336377</v>
+        <v>79.54233409610984</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" s="0">
-        <v>80.869565217391298</v>
+        <v>79.725400457665913</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" s="0">
-        <v>80.45766590389016</v>
+        <v>79.679633867276891</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" s="0">
-        <v>81.464530892448522</v>
+        <v>83.020594965675059</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" s="0">
-        <v>81.235697940503442</v>
+        <v>84.713958810068647</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" s="0">
-        <v>80.411899313501152</v>
+        <v>78.993135011441652</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" s="0">
-        <v>82.242562929061776</v>
+        <v>77.848970251716239</v>
       </c>
     </row>
     <row r="49">
       <c r="A49" s="0">
-        <v>81.144164759725399</v>
+        <v>80.45766590389016</v>
       </c>
     </row>
   </sheetData>

--- a/Thresholding/LocalT2/HK_R_acc_LT.xlsx
+++ b/Thresholding/LocalT2/HK_R_acc_LT.xlsx
@@ -13,7 +13,25 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="44" uniqueCount="44">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="50" uniqueCount="50">
+  <si>
+    <t>HK_R_acc_LT</t>
+  </si>
+  <si>
+    <t>HK_R_acc_LT</t>
+  </si>
+  <si>
+    <t>HK_R_acc_LT</t>
+  </si>
+  <si>
+    <t>HK_R_acc_LT</t>
+  </si>
+  <si>
+    <t>HK_R_acc_LT</t>
+  </si>
+  <si>
+    <t>HK_R_acc_LT</t>
+  </si>
   <si>
     <t>HK_R_acc_LT</t>
   </si>
@@ -198,247 +216,247 @@
   <sheetData>
     <row r="1">
       <c r="A1" s="0" t="s">
-        <v>43</v>
+        <v>49</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" s="0">
-        <v>80.915331807780319</v>
+        <v>80.850091407678249</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="0">
-        <v>83.981693363844386</v>
+        <v>83.912248628884825</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="0">
-        <v>84.302059496567509</v>
+        <v>84.232175502742237</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="0">
-        <v>88.054919908466829</v>
+        <v>87.979890310786104</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="0">
-        <v>88.054919908466829</v>
+        <v>87.979890310786104</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="0">
-        <v>87.643020594965677</v>
+        <v>87.568555758683729</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="0">
-        <v>78.764302059496572</v>
+        <v>78.702010968921385</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="0">
-        <v>80.549199084668189</v>
+        <v>80.484460694698356</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="0">
-        <v>79.54233409610984</v>
+        <v>79.478976234003653</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="0">
-        <v>78.535469107551492</v>
+        <v>78.47349177330895</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="0">
-        <v>74.233409610983983</v>
+        <v>74.177330895795251</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" s="0">
-        <v>79.77116704805492</v>
+        <v>79.707495429616088</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="0">
-        <v>77.848970251716239</v>
+        <v>77.787934186471659</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" s="0">
-        <v>78.169336384439362</v>
+        <v>78.107861060329071</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="0">
-        <v>80.45766590389016</v>
+        <v>80.393053016453393</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" s="0">
-        <v>77.66590389016018</v>
+        <v>77.60511882998172</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" s="0">
-        <v>79.816933638443928</v>
+        <v>79.75319926873857</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" s="0">
-        <v>85.080091533180777</v>
+        <v>85.009140767824505</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" s="0">
-        <v>88.009153318077807</v>
+        <v>87.934186471663622</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" s="0">
-        <v>88.009153318077807</v>
+        <v>87.934186471663622</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" s="0">
-        <v>87.826086956521749</v>
+        <v>87.751371115173669</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" s="0">
-        <v>79.496567505720833</v>
+        <v>79.433272394881172</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" s="0">
-        <v>82.10526315789474</v>
+        <v>82.038391224862877</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" s="0">
-        <v>81.51029748283753</v>
+        <v>81.444241316270578</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" s="0">
-        <v>81.64759725400458</v>
+        <v>81.581352833638022</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" s="0">
-        <v>80.82379862700229</v>
+        <v>80.758683729433272</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" s="0">
-        <v>81.693363844393602</v>
+        <v>81.627056672760517</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" s="0">
-        <v>81.28146453089245</v>
+        <v>81.215722120658143</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" s="0">
-        <v>80.274599542334087</v>
+        <v>80.21023765996344</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" s="0">
-        <v>80.183066361556072</v>
+        <v>80.118829981718463</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" s="0">
-        <v>89.473684210526315</v>
+        <v>89.396709323583181</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" s="0">
-        <v>92.494279176201374</v>
+        <v>92.413162705667276</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" s="0">
-        <v>92.082379862700222</v>
+        <v>92.001828153564901</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" s="0">
-        <v>83.203661327231131</v>
+        <v>83.135283363802557</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" s="0">
-        <v>88.054919908466829</v>
+        <v>87.979890310786104</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" s="0">
-        <v>68.054919908466815</v>
+        <v>68.00731261425959</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" s="0">
-        <v>84.668192219679639</v>
+        <v>84.597806215722116</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" s="0">
-        <v>80.869565217391298</v>
+        <v>80.804387568555754</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" s="0">
-        <v>79.588100686498848</v>
+        <v>79.524680073126149</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" s="0">
-        <v>79.450800915331811</v>
+        <v>79.387568555758676</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" s="0">
-        <v>79.54233409610984</v>
+        <v>79.478976234003653</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" s="0">
-        <v>79.725400457665913</v>
+        <v>79.661791590493607</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" s="0">
-        <v>79.679633867276891</v>
+        <v>79.616087751371111</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" s="0">
-        <v>83.020594965675059</v>
+        <v>82.952468007312618</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" s="0">
-        <v>84.713958810068647</v>
+        <v>84.643510054844612</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" s="0">
-        <v>78.993135011441652</v>
+        <v>78.93053016453382</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" s="0">
-        <v>77.848970251716239</v>
+        <v>77.787934186471659</v>
       </c>
     </row>
     <row r="49">
       <c r="A49" s="0">
-        <v>80.45766590389016</v>
+        <v>80.393053016453393</v>
       </c>
     </row>
   </sheetData>

--- a/Thresholding/LocalT2/HK_R_acc_LT.xlsx
+++ b/Thresholding/LocalT2/HK_R_acc_LT.xlsx
@@ -13,7 +13,10 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="50" uniqueCount="50">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="51" uniqueCount="51">
+  <si>
+    <t>HK_R_acc_LT</t>
+  </si>
   <si>
     <t>HK_R_acc_LT</t>
   </si>
@@ -216,7 +219,7 @@
   <sheetData>
     <row r="1">
       <c r="A1" s="0" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
     </row>
     <row r="2">

--- a/Thresholding/LocalT2/HK_R_acc_LT.xlsx
+++ b/Thresholding/LocalT2/HK_R_acc_LT.xlsx
@@ -13,7 +13,10 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="51" uniqueCount="51">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="52" uniqueCount="52">
+  <si>
+    <t>HK_R_acc_LT</t>
+  </si>
   <si>
     <t>HK_R_acc_LT</t>
   </si>
@@ -219,57 +222,57 @@
   <sheetData>
     <row r="1">
       <c r="A1" s="0" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" s="0">
-        <v>80.850091407678249</v>
+        <v>80.301645338208402</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="0">
-        <v>83.912248628884825</v>
+        <v>82.17550274223035</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="0">
-        <v>84.232175502742237</v>
+        <v>83.135283363802557</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="0">
-        <v>87.979890310786104</v>
+        <v>87.477148080438766</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="0">
-        <v>87.979890310786104</v>
+        <v>87.659963436928706</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="0">
-        <v>87.568555758683729</v>
+        <v>87.340036563071294</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="0">
-        <v>78.702010968921385</v>
+        <v>78.244972577696529</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="0">
-        <v>80.484460694698356</v>
+        <v>78.427787934186483</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="0">
-        <v>79.478976234003653</v>
+        <v>77.970749542961599</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="0">
-        <v>78.47349177330895</v>
+        <v>73.49177330895796</v>
       </c>
     </row>
     <row r="12">
@@ -279,187 +282,187 @@
     </row>
     <row r="13">
       <c r="A13" s="0">
-        <v>79.707495429616088</v>
+        <v>79.524680073126149</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="0">
-        <v>77.787934186471659</v>
+        <v>77.559414990859239</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" s="0">
-        <v>78.107861060329071</v>
+        <v>77.925045703839118</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="0">
-        <v>80.393053016453393</v>
+        <v>77.513711151736743</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" s="0">
-        <v>77.60511882998172</v>
+        <v>76.873857404021933</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" s="0">
-        <v>79.75319926873857</v>
+        <v>79.707495429616088</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" s="0">
-        <v>85.009140767824505</v>
+        <v>84.643510054844612</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" s="0">
-        <v>87.934186471663622</v>
+        <v>87.659963436928706</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" s="0">
-        <v>87.934186471663622</v>
+        <v>85.557586837294338</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" s="0">
-        <v>87.751371115173669</v>
+        <v>87.477148080438766</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" s="0">
-        <v>79.433272394881172</v>
+        <v>79.204753199268737</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" s="0">
-        <v>82.038391224862877</v>
+        <v>81.946983546617915</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" s="0">
-        <v>81.444241316270578</v>
+        <v>81.261425959780624</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" s="0">
-        <v>81.581352833638022</v>
+        <v>78.793418647166362</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" s="0">
-        <v>80.758683729433272</v>
+        <v>78.199268738574034</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" s="0">
-        <v>81.627056672760517</v>
+        <v>79.296160877513714</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" s="0">
-        <v>81.215722120658143</v>
+        <v>80.712979890310791</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" s="0">
-        <v>80.21023765996344</v>
+        <v>79.57038391224863</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" s="0">
-        <v>80.118829981718463</v>
+        <v>79.204753199268737</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" s="0">
-        <v>89.396709323583181</v>
+        <v>88.482632541133455</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" s="0">
-        <v>92.413162705667276</v>
+        <v>89.899451553930533</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" s="0">
-        <v>92.001828153564901</v>
+        <v>91.133455210237656</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" s="0">
-        <v>83.135283363802557</v>
+        <v>81.809872029250457</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" s="0">
-        <v>87.979890310786104</v>
+        <v>79.75319926873857</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" s="0">
-        <v>68.00731261425959</v>
+        <v>66.453382084095068</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" s="0">
-        <v>84.597806215722116</v>
+        <v>84.3235831809872</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" s="0">
-        <v>80.804387568555754</v>
+        <v>76.279707495429619</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" s="0">
-        <v>79.524680073126149</v>
+        <v>79.616087751371111</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" s="0">
-        <v>79.387568555758676</v>
+        <v>78.610603290676423</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" s="0">
-        <v>79.478976234003653</v>
+        <v>78.427787934186483</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" s="0">
-        <v>79.661791590493607</v>
+        <v>78.976234003656316</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" s="0">
-        <v>79.616087751371111</v>
+        <v>78.244972577696529</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" s="0">
-        <v>82.952468007312618</v>
+        <v>78.976234003656316</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" s="0">
-        <v>84.643510054844612</v>
+        <v>78.884826325411339</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" s="0">
-        <v>78.93053016453382</v>
+        <v>78.564899451553927</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" s="0">
-        <v>77.787934186471659</v>
+        <v>74.771480804387565</v>
       </c>
     </row>
     <row r="49">
       <c r="A49" s="0">
-        <v>80.393053016453393</v>
+        <v>79.981718464351005</v>
       </c>
     </row>
   </sheetData>

--- a/Thresholding/LocalT2/HK_R_acc_LT.xlsx
+++ b/Thresholding/LocalT2/HK_R_acc_LT.xlsx
@@ -13,7 +13,16 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="52" uniqueCount="52">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="55" uniqueCount="55">
+  <si>
+    <t>HK_R_acc_LT</t>
+  </si>
+  <si>
+    <t>HK_R_acc_LT</t>
+  </si>
+  <si>
+    <t>HK_R_acc_LT</t>
+  </si>
   <si>
     <t>HK_R_acc_LT</t>
   </si>
@@ -214,7 +223,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:A49"/>
+  <dimension ref="A1:A50"/>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="11.984375" customWidth="true"/>
@@ -222,247 +231,252 @@
   <sheetData>
     <row r="1">
       <c r="A1" s="0" t="s">
-        <v>51</v>
+        <v>54</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" s="0">
-        <v>80.301645338208402</v>
+        <v>80.804387568555754</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="0">
-        <v>82.17550274223035</v>
+        <v>83.912248628884825</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="0">
-        <v>83.135283363802557</v>
+        <v>84.232175502742237</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="0">
-        <v>87.477148080438766</v>
+        <v>87.705667276051187</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="0">
-        <v>87.659963436928706</v>
+        <v>87.979890310786104</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="0">
-        <v>87.340036563071294</v>
+        <v>87.477148080438766</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="0">
-        <v>78.244972577696529</v>
+        <v>78.702010968921385</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="0">
-        <v>78.427787934186483</v>
+        <v>80.118829981718463</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="0">
-        <v>77.970749542961599</v>
+        <v>79.478976234003653</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="0">
-        <v>73.49177330895796</v>
+        <v>78.47349177330895</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="0">
-        <v>74.177330895795251</v>
+        <v>74.131627056672755</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" s="0">
-        <v>79.524680073126149</v>
+        <v>79.75319926873857</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="0">
-        <v>77.559414990859239</v>
+        <v>77.696526508226697</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" s="0">
-        <v>77.925045703839118</v>
+        <v>78.427787934186483</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="0">
-        <v>77.513711151736743</v>
+        <v>80.393053016453393</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" s="0">
-        <v>76.873857404021933</v>
+        <v>77.285191956124308</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" s="0">
-        <v>79.707495429616088</v>
+        <v>79.75319926873857</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" s="0">
-        <v>84.643510054844612</v>
+        <v>85.009140767824505</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" s="0">
-        <v>87.659963436928706</v>
+        <v>87.934186471663622</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" s="0">
-        <v>85.557586837294338</v>
+        <v>87.934186471663622</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" s="0">
-        <v>87.477148080438766</v>
+        <v>87.248628884826331</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" s="0">
-        <v>79.204753199268737</v>
+        <v>79.433272394881172</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" s="0">
-        <v>81.946983546617915</v>
+        <v>81.764168190127975</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" s="0">
-        <v>81.261425959780624</v>
+        <v>81.352833638025587</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" s="0">
-        <v>78.793418647166362</v>
+        <v>81.581352833638022</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" s="0">
-        <v>78.199268738574034</v>
+        <v>80.804387568555754</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" s="0">
-        <v>79.296160877513714</v>
+        <v>81.672760511882998</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" s="0">
-        <v>80.712979890310791</v>
+        <v>80.804387568555754</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" s="0">
-        <v>79.57038391224863</v>
+        <v>80.073126142595967</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" s="0">
-        <v>79.204753199268737</v>
+        <v>79.616087751371111</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" s="0">
-        <v>88.482632541133455</v>
+        <v>88.893967093235844</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" s="0">
-        <v>89.899451553930533</v>
+        <v>92.367458866544794</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" s="0">
-        <v>91.133455210237656</v>
+        <v>91.864716636197443</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" s="0">
-        <v>81.809872029250457</v>
+        <v>83.135283363802557</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" s="0">
-        <v>79.75319926873857</v>
+        <v>87.979890310786104</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" s="0">
-        <v>66.453382084095068</v>
+        <v>67.778793418647169</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" s="0">
-        <v>84.3235831809872</v>
+        <v>84.232175502742237</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" s="0">
-        <v>76.279707495429619</v>
+        <v>80.804387568555754</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" s="0">
-        <v>79.616087751371111</v>
+        <v>79.57038391224863</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" s="0">
-        <v>78.610603290676423</v>
+        <v>78.93053016453382</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" s="0">
-        <v>78.427787934186483</v>
+        <v>79.524680073126149</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" s="0">
-        <v>78.976234003656316</v>
+        <v>79.661791590493607</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" s="0">
-        <v>78.244972577696529</v>
+        <v>79.616087751371111</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" s="0">
-        <v>78.976234003656316</v>
+        <v>82.952468007312618</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" s="0">
-        <v>78.884826325411339</v>
+        <v>84.643510054844612</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" s="0">
-        <v>78.564899451553927</v>
+        <v>78.884826325411339</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" s="0">
-        <v>74.771480804387565</v>
+        <v>77.742230347349178</v>
       </c>
     </row>
     <row r="49">
       <c r="A49" s="0">
-        <v>79.981718464351005</v>
+        <v>80.347349177330898</v>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" s="0">
+        <v>89.305301645338204</v>
       </c>
     </row>
   </sheetData>

--- a/Thresholding/LocalT2/HK_R_acc_LT.xlsx
+++ b/Thresholding/LocalT2/HK_R_acc_LT.xlsx
@@ -13,7 +13,34 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="55" uniqueCount="55">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="64" uniqueCount="64">
+  <si>
+    <t>HK_R_acc_LT</t>
+  </si>
+  <si>
+    <t>HK_R_acc_LT</t>
+  </si>
+  <si>
+    <t>HK_R_acc_LT</t>
+  </si>
+  <si>
+    <t>HK_R_acc_LT</t>
+  </si>
+  <si>
+    <t>HK_R_acc_LT</t>
+  </si>
+  <si>
+    <t>HK_R_acc_LT</t>
+  </si>
+  <si>
+    <t>HK_R_acc_LT</t>
+  </si>
+  <si>
+    <t>HK_R_acc_LT</t>
+  </si>
+  <si>
+    <t>HK_R_acc_LT</t>
+  </si>
   <si>
     <t>HK_R_acc_LT</t>
   </si>
@@ -231,252 +258,252 @@
   <sheetData>
     <row r="1">
       <c r="A1" s="0" t="s">
-        <v>54</v>
+        <v>63</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" s="0">
-        <v>80.804387568555754</v>
+        <v>88.586479367866545</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="0">
-        <v>83.912248628884825</v>
+        <v>91.483757682177341</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="0">
-        <v>84.232175502742237</v>
+        <v>91.17647058823529</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="0">
-        <v>87.705667276051187</v>
+        <v>81.60667251975417</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="0">
-        <v>87.979890310786104</v>
+        <v>87.093942054433711</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="0">
-        <v>87.477148080438766</v>
+        <v>85.425812115891134</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="0">
-        <v>78.702010968921385</v>
+        <v>91.439859525899919</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="0">
-        <v>80.118829981718463</v>
+        <v>91.220368744512726</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="0">
-        <v>79.478976234003653</v>
+        <v>91.527655838454777</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="0">
-        <v>78.47349177330895</v>
+        <v>91.791044776119406</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="0">
-        <v>74.131627056672755</v>
+        <v>76.119402985074629</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" s="0">
-        <v>79.75319926873857</v>
+        <v>77.216856892010526</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="0">
-        <v>77.696526508226697</v>
+        <v>88.542581211589109</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" s="0">
-        <v>78.427787934186483</v>
+        <v>88.84986830553116</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="0">
-        <v>80.393053016453393</v>
+        <v>88.498683055311673</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" s="0">
-        <v>77.285191956124308</v>
+        <v>71.773485513608421</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" s="0">
-        <v>79.75319926873857</v>
+        <v>73.222124670763833</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" s="0">
-        <v>85.009140767824505</v>
+        <v>73.617208077260756</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" s="0">
-        <v>87.934186471663622</v>
+        <v>88.805970149253739</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" s="0">
-        <v>87.934186471663622</v>
+        <v>89.069359086918354</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" s="0">
-        <v>87.248628884826331</v>
+        <v>89.947322212467071</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" s="0">
-        <v>79.433272394881172</v>
+        <v>76.031606672519757</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" s="0">
-        <v>81.764168190127975</v>
+        <v>75.373134328358205</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" s="0">
-        <v>81.352833638025587</v>
+        <v>75.592625109745399</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" s="0">
-        <v>81.581352833638022</v>
+        <v>74.670763827919231</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" s="0">
-        <v>80.804387568555754</v>
+        <v>73.266022827041269</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" s="0">
-        <v>81.672760511882998</v>
+        <v>74.539069359086923</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" s="0">
-        <v>80.804387568555754</v>
+        <v>88.937664618086046</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" s="0">
-        <v>80.073126142595967</v>
+        <v>88.366988586479366</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" s="0">
-        <v>79.616087751371111</v>
+        <v>73.924495171202807</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" s="0">
-        <v>88.893967093235844</v>
+        <v>87.006145741878839</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" s="0">
-        <v>92.367458866544794</v>
+        <v>91.878841088674278</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" s="0">
-        <v>91.864716636197443</v>
+        <v>89.157155399473226</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" s="0">
-        <v>83.135283363802557</v>
+        <v>89.201053555750647</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" s="0">
-        <v>87.979890310786104</v>
+        <v>90.342405618964008</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" s="0">
-        <v>67.778793418647169</v>
+        <v>67.515364354697098</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" s="0">
-        <v>84.232175502742237</v>
+        <v>87.928007023705007</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" s="0">
-        <v>80.804387568555754</v>
+        <v>86.128182616330122</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" s="0">
-        <v>79.57038391224863</v>
+        <v>85.645302897278313</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" s="0">
-        <v>78.93053016453382</v>
+        <v>83.230904302019312</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" s="0">
-        <v>79.524680073126149</v>
+        <v>72.519754170324845</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" s="0">
-        <v>79.661791590493607</v>
+        <v>73.485513608428448</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" s="0">
-        <v>79.616087751371111</v>
+        <v>83.494293239683941</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" s="0">
-        <v>82.952468007312618</v>
+        <v>84.635645302897274</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" s="0">
-        <v>84.643510054844612</v>
+        <v>83.187006145741876</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" s="0">
-        <v>78.884826325411339</v>
+        <v>79.587357330992106</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" s="0">
-        <v>77.742230347349178</v>
+        <v>73.090430201931525</v>
       </c>
     </row>
     <row r="49">
       <c r="A49" s="0">
-        <v>80.347349177330898</v>
+        <v>81.738366988586478</v>
       </c>
     </row>
     <row r="50">
       <c r="A50" s="0">
-        <v>89.305301645338204</v>
+        <v>79.806848112379285</v>
       </c>
     </row>
   </sheetData>

--- a/Thresholding/LocalT2/HK_R_acc_LT.xlsx
+++ b/Thresholding/LocalT2/HK_R_acc_LT.xlsx
@@ -13,7 +13,10 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="64" uniqueCount="64">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="65" uniqueCount="65">
+  <si>
+    <t>HK_R_acc_LT</t>
+  </si>
   <si>
     <t>HK_R_acc_LT</t>
   </si>
@@ -258,7 +261,7 @@
   <sheetData>
     <row r="1">
       <c r="A1" s="0" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
     </row>
     <row r="2">

--- a/Thresholding/LocalT2/HK_R_acc_LT.xlsx
+++ b/Thresholding/LocalT2/HK_R_acc_LT.xlsx
@@ -13,7 +13,10 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="65" uniqueCount="65">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="66" uniqueCount="66">
+  <si>
+    <t>HK_R_acc_LT</t>
+  </si>
   <si>
     <t>HK_R_acc_LT</t>
   </si>
@@ -261,7 +264,7 @@
   <sheetData>
     <row r="1">
       <c r="A1" s="0" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
     </row>
     <row r="2">
@@ -426,7 +429,7 @@
     </row>
     <row r="34">
       <c r="A34" s="0">
-        <v>89.157155399473226</v>
+        <v>88.805970149253739</v>
       </c>
     </row>
     <row r="35">

--- a/Thresholding/LocalT2/HK_R_acc_LT.xlsx
+++ b/Thresholding/LocalT2/HK_R_acc_LT.xlsx
@@ -13,7 +13,31 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="66" uniqueCount="66">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="74" uniqueCount="74">
+  <si>
+    <t>HK_R_acc_LT</t>
+  </si>
+  <si>
+    <t>HK_R_acc_LT</t>
+  </si>
+  <si>
+    <t>HK_R_acc_LT</t>
+  </si>
+  <si>
+    <t>HK_R_acc_LT</t>
+  </si>
+  <si>
+    <t>HK_R_acc_LT</t>
+  </si>
+  <si>
+    <t>HK_R_acc_LT</t>
+  </si>
+  <si>
+    <t>HK_R_acc_LT</t>
+  </si>
+  <si>
+    <t>HK_R_acc_LT</t>
+  </si>
   <si>
     <t>HK_R_acc_LT</t>
   </si>
@@ -264,7 +288,7 @@
   <sheetData>
     <row r="1">
       <c r="A1" s="0" t="s">
-        <v>65</v>
+        <v>73</v>
       </c>
     </row>
     <row r="2">

--- a/Thresholding/LocalT2/HK_R_acc_LT.xlsx
+++ b/Thresholding/LocalT2/HK_R_acc_LT.xlsx
@@ -13,7 +13,10 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="74" uniqueCount="74">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="75" uniqueCount="75">
+  <si>
+    <t>HK_R_acc_LT</t>
+  </si>
   <si>
     <t>HK_R_acc_LT</t>
   </si>
@@ -288,7 +291,7 @@
   <sheetData>
     <row r="1">
       <c r="A1" s="0" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
     </row>
     <row r="2">

--- a/Thresholding/LocalT2/HK_R_acc_LT.xlsx
+++ b/Thresholding/LocalT2/HK_R_acc_LT.xlsx
@@ -1,6 +1,6 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing">
   <workbookPr/>
   <bookViews>
     <workbookView activeTab="0"/>
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="75" uniqueCount="75">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" count="76" uniqueCount="75">
   <si>
     <t>HK_R_acc_LT</t>
   </si>
@@ -243,7 +243,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing">
   <fonts count="1">
     <font>
       <sz val="11"/>
@@ -282,11 +282,14 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:A50"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="11.984375" customWidth="true"/>
+    <col min="1" max="1" width="11.7265625" customWidth="true"/>
   </cols>
   <sheetData>
     <row r="1">

--- a/Thresholding/LocalT2/HK_R_acc_LT.xlsx
+++ b/Thresholding/LocalT2/HK_R_acc_LT.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" count="76" uniqueCount="75">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" count="77" uniqueCount="75">
   <si>
     <t>HK_R_acc_LT</t>
   </si>
